--- a/data/depot/Spending Drivers - K12 - Expenditure Data by Census Code.xlsx
+++ b/data/depot/Spending Drivers - K12 - Expenditure Data by Census Code.xlsx
@@ -4,16 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9015" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="21075" windowHeight="9015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Elementary and Secondary" sheetId="1" r:id="rId1"/>
     <sheet name="State Education - Other" sheetId="2" r:id="rId2"/>
     <sheet name="Libraries" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
@@ -749,2012 +746,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Data"/>
-      <sheetName val="Charges"/>
-      <sheetName val="Current"/>
-      <sheetName val="Construction"/>
-      <sheetName val="Other Capital"/>
-      <sheetName val="Subsidies"/>
-      <sheetName val="All Capital"/>
-      <sheetName val="Expenditures Net of Charges"/>
-      <sheetName val="K12"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="2">
-          <cell r="C2">
-            <v>6893192</v>
-          </cell>
-          <cell r="D2">
-            <v>1068873</v>
-          </cell>
-          <cell r="E2">
-            <v>0</v>
-          </cell>
-          <cell r="F2">
-            <v>514518864</v>
-          </cell>
-          <cell r="G2">
-            <v>16228255</v>
-          </cell>
-          <cell r="H2">
-            <v>10255246</v>
-          </cell>
-          <cell r="I2">
-            <v>40253868</v>
-          </cell>
-          <cell r="J2">
-            <v>643966</v>
-          </cell>
-          <cell r="K2">
-            <v>832562</v>
-          </cell>
-          <cell r="L2">
-            <v>10948019</v>
-          </cell>
-          <cell r="M2">
-            <v>144866</v>
-          </cell>
-          <cell r="N2">
-            <v>371923</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3">
-            <v>208193</v>
-          </cell>
-          <cell r="D3">
-            <v>31484</v>
-          </cell>
-          <cell r="E3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>6645480</v>
-          </cell>
-          <cell r="G3">
-            <v>313253</v>
-          </cell>
-          <cell r="H3">
-            <v>81288</v>
-          </cell>
-          <cell r="I3">
-            <v>509736</v>
-          </cell>
-          <cell r="J3">
-            <v>695</v>
-          </cell>
-          <cell r="K3">
-            <v>5194</v>
-          </cell>
-          <cell r="L3">
-            <v>71720</v>
-          </cell>
-          <cell r="M3">
-            <v>13769</v>
-          </cell>
-          <cell r="N3">
-            <v>1681</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4">
-            <v>19512</v>
-          </cell>
-          <cell r="D4">
-            <v>3863</v>
-          </cell>
-          <cell r="E4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>2142433</v>
-          </cell>
-          <cell r="G4">
-            <v>98699</v>
-          </cell>
-          <cell r="H4">
-            <v>35554</v>
-          </cell>
-          <cell r="I4">
-            <v>93230</v>
-          </cell>
-          <cell r="J4">
-            <v>837</v>
-          </cell>
-          <cell r="K4">
-            <v>1834</v>
-          </cell>
-          <cell r="L4">
-            <v>53371</v>
-          </cell>
-          <cell r="M4">
-            <v>65</v>
-          </cell>
-          <cell r="N4">
-            <v>786</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="C5">
-            <v>134743</v>
-          </cell>
-          <cell r="D5">
-            <v>27427</v>
-          </cell>
-          <cell r="E5">
-            <v>0</v>
-          </cell>
-          <cell r="F5">
-            <v>7199266</v>
-          </cell>
-          <cell r="G5">
-            <v>275494</v>
-          </cell>
-          <cell r="H5">
-            <v>150935</v>
-          </cell>
-          <cell r="I5">
-            <v>487805</v>
-          </cell>
-          <cell r="J5">
-            <v>13</v>
-          </cell>
-          <cell r="K5">
-            <v>3111</v>
-          </cell>
-          <cell r="L5">
-            <v>211510</v>
-          </cell>
-          <cell r="M5">
-            <v>8967</v>
-          </cell>
-          <cell r="N5">
-            <v>5839</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="C6">
-            <v>85609</v>
-          </cell>
-          <cell r="D6">
-            <v>1803</v>
-          </cell>
-          <cell r="E6">
-            <v>0</v>
-          </cell>
-          <cell r="F6">
-            <v>4372626</v>
-          </cell>
-          <cell r="G6">
-            <v>132195</v>
-          </cell>
-          <cell r="H6">
-            <v>84831</v>
-          </cell>
-          <cell r="I6">
-            <v>402905</v>
-          </cell>
-          <cell r="J6">
-            <v>1751</v>
-          </cell>
-          <cell r="K6">
-            <v>7188</v>
-          </cell>
-          <cell r="L6">
-            <v>209515</v>
-          </cell>
-          <cell r="M6">
-            <v>0</v>
-          </cell>
-          <cell r="N6">
-            <v>2256</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="C7">
-            <v>592857</v>
-          </cell>
-          <cell r="D7">
-            <v>5498</v>
-          </cell>
-          <cell r="E7">
-            <v>0</v>
-          </cell>
-          <cell r="F7">
-            <v>60058814</v>
-          </cell>
-          <cell r="G7">
-            <v>790808</v>
-          </cell>
-          <cell r="H7">
-            <v>1213526</v>
-          </cell>
-          <cell r="I7">
-            <v>6194845</v>
-          </cell>
-          <cell r="J7">
-            <v>1909</v>
-          </cell>
-          <cell r="K7">
-            <v>148923</v>
-          </cell>
-          <cell r="L7">
-            <v>569268</v>
-          </cell>
-          <cell r="M7">
-            <v>267</v>
-          </cell>
-          <cell r="N7">
-            <v>23982</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>264155</v>
-          </cell>
-          <cell r="D8">
-            <v>14622</v>
-          </cell>
-          <cell r="E8">
-            <v>0</v>
-          </cell>
-          <cell r="F8">
-            <v>7291621</v>
-          </cell>
-          <cell r="G8">
-            <v>106168</v>
-          </cell>
-          <cell r="H8">
-            <v>229188</v>
-          </cell>
-          <cell r="I8">
-            <v>461949</v>
-          </cell>
-          <cell r="J8">
-            <v>177296</v>
-          </cell>
-          <cell r="K8">
-            <v>17036</v>
-          </cell>
-          <cell r="L8">
-            <v>235485</v>
-          </cell>
-          <cell r="M8">
-            <v>2379</v>
-          </cell>
-          <cell r="N8">
-            <v>5392</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9">
-            <v>4024</v>
-          </cell>
-          <cell r="D9">
-            <v>2093</v>
-          </cell>
-          <cell r="E9">
-            <v>0</v>
-          </cell>
-          <cell r="F9">
-            <v>8025065</v>
-          </cell>
-          <cell r="G9">
-            <v>297990</v>
-          </cell>
-          <cell r="H9">
-            <v>152107</v>
-          </cell>
-          <cell r="I9">
-            <v>556330</v>
-          </cell>
-          <cell r="J9">
-            <v>22155</v>
-          </cell>
-          <cell r="K9">
-            <v>6953</v>
-          </cell>
-          <cell r="L9">
-            <v>84553</v>
-          </cell>
-          <cell r="M9">
-            <v>8464</v>
-          </cell>
-          <cell r="N9">
-            <v>533</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10">
-            <v>615</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-          <cell r="F10">
-            <v>1689513</v>
-          </cell>
-          <cell r="G10">
-            <v>150183</v>
-          </cell>
-          <cell r="H10">
-            <v>34328</v>
-          </cell>
-          <cell r="I10">
-            <v>135309</v>
-          </cell>
-          <cell r="J10">
-            <v>0</v>
-          </cell>
-          <cell r="K10">
-            <v>15769</v>
-          </cell>
-          <cell r="L10">
-            <v>14275</v>
-          </cell>
-          <cell r="M10">
-            <v>4410</v>
-          </cell>
-          <cell r="N10">
-            <v>894</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11">
-            <v>395</v>
-          </cell>
-          <cell r="D11">
-            <v>0</v>
-          </cell>
-          <cell r="E11">
-            <v>0</v>
-          </cell>
-          <cell r="F11">
-            <v>1982666</v>
-          </cell>
-          <cell r="G11">
-            <v>0</v>
-          </cell>
-          <cell r="H11">
-            <v>34373</v>
-          </cell>
-          <cell r="I11">
-            <v>201829</v>
-          </cell>
-          <cell r="J11">
-            <v>0</v>
-          </cell>
-          <cell r="K11">
-            <v>27173</v>
-          </cell>
-          <cell r="L11">
-            <v>16676</v>
-          </cell>
-          <cell r="M11">
-            <v>0</v>
-          </cell>
-          <cell r="N11">
-            <v>3953</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12">
-            <v>836227</v>
-          </cell>
-          <cell r="D12">
-            <v>1989</v>
-          </cell>
-          <cell r="E12">
-            <v>0</v>
-          </cell>
-          <cell r="F12">
-            <v>22895422</v>
-          </cell>
-          <cell r="G12">
-            <v>1218032</v>
-          </cell>
-          <cell r="H12">
-            <v>519110</v>
-          </cell>
-          <cell r="I12">
-            <v>1315074</v>
-          </cell>
-          <cell r="J12">
-            <v>107530</v>
-          </cell>
-          <cell r="K12">
-            <v>45079</v>
-          </cell>
-          <cell r="L12">
-            <v>530144</v>
-          </cell>
-          <cell r="M12">
-            <v>6868</v>
-          </cell>
-          <cell r="N12">
-            <v>42457</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13">
-            <v>299412</v>
-          </cell>
-          <cell r="D13">
-            <v>7925</v>
-          </cell>
-          <cell r="E13">
-            <v>0</v>
-          </cell>
-          <cell r="F13">
-            <v>15551381</v>
-          </cell>
-          <cell r="G13">
-            <v>839918</v>
-          </cell>
-          <cell r="H13">
-            <v>154567</v>
-          </cell>
-          <cell r="I13">
-            <v>1338505</v>
-          </cell>
-          <cell r="J13">
-            <v>117817</v>
-          </cell>
-          <cell r="K13">
-            <v>10867</v>
-          </cell>
-          <cell r="L13">
-            <v>227522</v>
-          </cell>
-          <cell r="M13">
-            <v>679</v>
-          </cell>
-          <cell r="N13">
-            <v>4715</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14">
-            <v>4397</v>
-          </cell>
-          <cell r="D14">
-            <v>0</v>
-          </cell>
-          <cell r="E14">
-            <v>0</v>
-          </cell>
-          <cell r="F14">
-            <v>1705744</v>
-          </cell>
-          <cell r="G14">
-            <v>8200</v>
-          </cell>
-          <cell r="H14">
-            <v>28022</v>
-          </cell>
-          <cell r="I14">
-            <v>133173</v>
-          </cell>
-          <cell r="J14">
-            <v>1</v>
-          </cell>
-          <cell r="K14">
-            <v>5307</v>
-          </cell>
-          <cell r="L14">
-            <v>56918</v>
-          </cell>
-          <cell r="M14">
-            <v>409</v>
-          </cell>
-          <cell r="N14">
-            <v>2905</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="C15">
-            <v>5862</v>
-          </cell>
-          <cell r="D15">
-            <v>1036</v>
-          </cell>
-          <cell r="E15">
-            <v>0</v>
-          </cell>
-          <cell r="F15">
-            <v>1783900</v>
-          </cell>
-          <cell r="G15">
-            <v>67599</v>
-          </cell>
-          <cell r="H15">
-            <v>58781</v>
-          </cell>
-          <cell r="I15">
-            <v>33231</v>
-          </cell>
-          <cell r="J15">
-            <v>8517</v>
-          </cell>
-          <cell r="K15">
-            <v>1196</v>
-          </cell>
-          <cell r="L15">
-            <v>36008</v>
-          </cell>
-          <cell r="M15">
-            <v>388</v>
-          </cell>
-          <cell r="N15">
-            <v>568</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>262078</v>
-          </cell>
-          <cell r="D16">
-            <v>1298</v>
-          </cell>
-          <cell r="E16">
-            <v>0</v>
-          </cell>
-          <cell r="F16">
-            <v>22813755</v>
-          </cell>
-          <cell r="G16">
-            <v>509299</v>
-          </cell>
-          <cell r="H16">
-            <v>703131</v>
-          </cell>
-          <cell r="I16">
-            <v>1692131</v>
-          </cell>
-          <cell r="J16">
-            <v>27</v>
-          </cell>
-          <cell r="K16">
-            <v>33959</v>
-          </cell>
-          <cell r="L16">
-            <v>340371</v>
-          </cell>
-          <cell r="M16">
-            <v>3550</v>
-          </cell>
-          <cell r="N16">
-            <v>42371</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="C17">
-            <v>144513</v>
-          </cell>
-          <cell r="D17">
-            <v>25</v>
-          </cell>
-          <cell r="E17">
-            <v>0</v>
-          </cell>
-          <cell r="F17">
-            <v>8914008</v>
-          </cell>
-          <cell r="G17">
-            <v>235415</v>
-          </cell>
-          <cell r="H17">
-            <v>393574</v>
-          </cell>
-          <cell r="I17">
-            <v>335387</v>
-          </cell>
-          <cell r="J17">
-            <v>91</v>
-          </cell>
-          <cell r="K17">
-            <v>8395</v>
-          </cell>
-          <cell r="L17">
-            <v>562892</v>
-          </cell>
-          <cell r="M17">
-            <v>922</v>
-          </cell>
-          <cell r="N17">
-            <v>42058</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="C18">
-            <v>49614</v>
-          </cell>
-          <cell r="D18">
-            <v>552</v>
-          </cell>
-          <cell r="E18">
-            <v>0</v>
-          </cell>
-          <cell r="F18">
-            <v>5003871</v>
-          </cell>
-          <cell r="G18">
-            <v>140701</v>
-          </cell>
-          <cell r="H18">
-            <v>118992</v>
-          </cell>
-          <cell r="I18">
-            <v>712442</v>
-          </cell>
-          <cell r="J18">
-            <v>0</v>
-          </cell>
-          <cell r="K18">
-            <v>7647</v>
-          </cell>
-          <cell r="L18">
-            <v>188149</v>
-          </cell>
-          <cell r="M18">
-            <v>2616</v>
-          </cell>
-          <cell r="N18">
-            <v>1584</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="C19">
-            <v>48329</v>
-          </cell>
-          <cell r="D19">
-            <v>1827</v>
-          </cell>
-          <cell r="E19">
-            <v>0</v>
-          </cell>
-          <cell r="F19">
-            <v>4425935</v>
-          </cell>
-          <cell r="G19">
-            <v>125125</v>
-          </cell>
-          <cell r="H19">
-            <v>104179</v>
-          </cell>
-          <cell r="I19">
-            <v>435403</v>
-          </cell>
-          <cell r="J19">
-            <v>313</v>
-          </cell>
-          <cell r="K19">
-            <v>496</v>
-          </cell>
-          <cell r="L19">
-            <v>227319</v>
-          </cell>
-          <cell r="M19">
-            <v>1191</v>
-          </cell>
-          <cell r="N19">
-            <v>1395</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="C20">
-            <v>11038</v>
-          </cell>
-          <cell r="D20">
-            <v>2386</v>
-          </cell>
-          <cell r="E20">
-            <v>0</v>
-          </cell>
-          <cell r="F20">
-            <v>6144169</v>
-          </cell>
-          <cell r="G20">
-            <v>211680</v>
-          </cell>
-          <cell r="H20">
-            <v>128551</v>
-          </cell>
-          <cell r="I20">
-            <v>606956</v>
-          </cell>
-          <cell r="J20">
-            <v>6</v>
-          </cell>
-          <cell r="K20">
-            <v>21877</v>
-          </cell>
-          <cell r="L20">
-            <v>179991</v>
-          </cell>
-          <cell r="M20">
-            <v>4968</v>
-          </cell>
-          <cell r="N20">
-            <v>5890</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="C21">
-            <v>10782</v>
-          </cell>
-          <cell r="D21">
-            <v>17658</v>
-          </cell>
-          <cell r="E21">
-            <v>0</v>
-          </cell>
-          <cell r="F21">
-            <v>7854670</v>
-          </cell>
-          <cell r="G21">
-            <v>593464</v>
-          </cell>
-          <cell r="H21">
-            <v>171738</v>
-          </cell>
-          <cell r="I21">
-            <v>637929</v>
-          </cell>
-          <cell r="J21">
-            <v>4293</v>
-          </cell>
-          <cell r="K21">
-            <v>33622</v>
-          </cell>
-          <cell r="L21">
-            <v>236908</v>
-          </cell>
-          <cell r="M21">
-            <v>6100</v>
-          </cell>
-          <cell r="N21">
-            <v>12935</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="C22">
-            <v>5014</v>
-          </cell>
-          <cell r="D22">
-            <v>7826</v>
-          </cell>
-          <cell r="E22">
-            <v>0</v>
-          </cell>
-          <cell r="F22">
-            <v>2209513</v>
-          </cell>
-          <cell r="G22">
-            <v>109322</v>
-          </cell>
-          <cell r="H22">
-            <v>40545</v>
-          </cell>
-          <cell r="I22">
-            <v>101329</v>
-          </cell>
-          <cell r="J22">
-            <v>0</v>
-          </cell>
-          <cell r="K22">
-            <v>3447</v>
-          </cell>
-          <cell r="L22">
-            <v>30050</v>
-          </cell>
-          <cell r="M22">
-            <v>11628</v>
-          </cell>
-          <cell r="N22">
-            <v>241</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="C23">
-            <v>24684</v>
-          </cell>
-          <cell r="D23">
-            <v>188</v>
-          </cell>
-          <cell r="E23">
-            <v>0</v>
-          </cell>
-          <cell r="F23">
-            <v>10833288</v>
-          </cell>
-          <cell r="G23">
-            <v>275050</v>
-          </cell>
-          <cell r="H23">
-            <v>182364</v>
-          </cell>
-          <cell r="I23">
-            <v>965396</v>
-          </cell>
-          <cell r="J23">
-            <v>390</v>
-          </cell>
-          <cell r="K23">
-            <v>3709</v>
-          </cell>
-          <cell r="L23">
-            <v>173759</v>
-          </cell>
-          <cell r="M23">
-            <v>1463</v>
-          </cell>
-          <cell r="N23">
-            <v>1488</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="C24">
-            <v>40227</v>
-          </cell>
-          <cell r="D24">
-            <v>2472</v>
-          </cell>
-          <cell r="E24">
-            <v>0</v>
-          </cell>
-          <cell r="F24">
-            <v>12929251</v>
-          </cell>
-          <cell r="G24">
-            <v>637558</v>
-          </cell>
-          <cell r="H24">
-            <v>250614</v>
-          </cell>
-          <cell r="I24">
-            <v>1114629</v>
-          </cell>
-          <cell r="J24">
-            <v>25</v>
-          </cell>
-          <cell r="K24">
-            <v>30938</v>
-          </cell>
-          <cell r="L24">
-            <v>403540</v>
-          </cell>
-          <cell r="M24">
-            <v>1804</v>
-          </cell>
-          <cell r="N24">
-            <v>1270</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="C25">
-            <v>424596</v>
-          </cell>
-          <cell r="D25">
-            <v>7185</v>
-          </cell>
-          <cell r="E25">
-            <v>0</v>
-          </cell>
-          <cell r="F25">
-            <v>15881467</v>
-          </cell>
-          <cell r="G25">
-            <v>135857</v>
-          </cell>
-          <cell r="H25">
-            <v>357859</v>
-          </cell>
-          <cell r="I25">
-            <v>830417</v>
-          </cell>
-          <cell r="J25">
-            <v>71</v>
-          </cell>
-          <cell r="K25">
-            <v>3881</v>
-          </cell>
-          <cell r="L25">
-            <v>370167</v>
-          </cell>
-          <cell r="M25">
-            <v>353</v>
-          </cell>
-          <cell r="N25">
-            <v>17695</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="C26">
-            <v>207169</v>
-          </cell>
-          <cell r="D26">
-            <v>70327</v>
-          </cell>
-          <cell r="E26">
-            <v>0</v>
-          </cell>
-          <cell r="F26">
-            <v>9054773</v>
-          </cell>
-          <cell r="G26">
-            <v>434214</v>
-          </cell>
-          <cell r="H26">
-            <v>225505</v>
-          </cell>
-          <cell r="I26">
-            <v>772596</v>
-          </cell>
-          <cell r="J26">
-            <v>17128</v>
-          </cell>
-          <cell r="K26">
-            <v>6893</v>
-          </cell>
-          <cell r="L26">
-            <v>261566</v>
-          </cell>
-          <cell r="M26">
-            <v>3398</v>
-          </cell>
-          <cell r="N26">
-            <v>10998</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="C27">
-            <v>137076</v>
-          </cell>
-          <cell r="D27">
-            <v>9543</v>
-          </cell>
-          <cell r="E27">
-            <v>0</v>
-          </cell>
-          <cell r="F27">
-            <v>4022904</v>
-          </cell>
-          <cell r="G27">
-            <v>220155</v>
-          </cell>
-          <cell r="H27">
-            <v>54079</v>
-          </cell>
-          <cell r="I27">
-            <v>179082</v>
-          </cell>
-          <cell r="J27">
-            <v>171</v>
-          </cell>
-          <cell r="K27">
-            <v>10879</v>
-          </cell>
-          <cell r="L27">
-            <v>150293</v>
-          </cell>
-          <cell r="M27">
-            <v>3149</v>
-          </cell>
-          <cell r="N27">
-            <v>3933</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="C28">
-            <v>244063</v>
-          </cell>
-          <cell r="D28">
-            <v>163</v>
-          </cell>
-          <cell r="E28">
-            <v>0</v>
-          </cell>
-          <cell r="F28">
-            <v>8612001</v>
-          </cell>
-          <cell r="G28">
-            <v>312273</v>
-          </cell>
-          <cell r="H28">
-            <v>218620</v>
-          </cell>
-          <cell r="I28">
-            <v>627372</v>
-          </cell>
-          <cell r="J28">
-            <v>146</v>
-          </cell>
-          <cell r="K28">
-            <v>14247</v>
-          </cell>
-          <cell r="L28">
-            <v>264102</v>
-          </cell>
-          <cell r="M28">
-            <v>1594</v>
-          </cell>
-          <cell r="N28">
-            <v>5176</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="C29">
-            <v>36922</v>
-          </cell>
-          <cell r="D29">
-            <v>3652</v>
-          </cell>
-          <cell r="E29">
-            <v>0</v>
-          </cell>
-          <cell r="F29">
-            <v>1501001</v>
-          </cell>
-          <cell r="G29">
-            <v>92136</v>
-          </cell>
-          <cell r="H29">
-            <v>29273</v>
-          </cell>
-          <cell r="I29">
-            <v>89953</v>
-          </cell>
-          <cell r="J29">
-            <v>0</v>
-          </cell>
-          <cell r="K29">
-            <v>0</v>
-          </cell>
-          <cell r="L29">
-            <v>27048</v>
-          </cell>
-          <cell r="M29">
-            <v>1378</v>
-          </cell>
-          <cell r="N29">
-            <v>1106</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="C30">
-            <v>79150</v>
-          </cell>
-          <cell r="D30">
-            <v>236</v>
-          </cell>
-          <cell r="E30">
-            <v>0</v>
-          </cell>
-          <cell r="F30">
-            <v>3398332</v>
-          </cell>
-          <cell r="G30">
-            <v>137275</v>
-          </cell>
-          <cell r="H30">
-            <v>51583</v>
-          </cell>
-          <cell r="I30">
-            <v>224605</v>
-          </cell>
-          <cell r="J30">
-            <v>27</v>
-          </cell>
-          <cell r="K30">
-            <v>5105</v>
-          </cell>
-          <cell r="L30">
-            <v>150066</v>
-          </cell>
-          <cell r="M30">
-            <v>119</v>
-          </cell>
-          <cell r="N30">
-            <v>1396</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="C31">
-            <v>4988</v>
-          </cell>
-          <cell r="D31">
-            <v>23</v>
-          </cell>
-          <cell r="E31">
-            <v>0</v>
-          </cell>
-          <cell r="F31">
-            <v>3546300</v>
-          </cell>
-          <cell r="G31">
-            <v>98987</v>
-          </cell>
-          <cell r="H31">
-            <v>99729</v>
-          </cell>
-          <cell r="I31">
-            <v>273721</v>
-          </cell>
-          <cell r="J31">
-            <v>0</v>
-          </cell>
-          <cell r="K31">
-            <v>1848</v>
-          </cell>
-          <cell r="L31">
-            <v>47424</v>
-          </cell>
-          <cell r="M31">
-            <v>900</v>
-          </cell>
-          <cell r="N31">
-            <v>610</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32">
-            <v>5145</v>
-          </cell>
-          <cell r="D32">
-            <v>323</v>
-          </cell>
-          <cell r="E32">
-            <v>0</v>
-          </cell>
-          <cell r="F32">
-            <v>2599134</v>
-          </cell>
-          <cell r="G32">
-            <v>46888</v>
-          </cell>
-          <cell r="H32">
-            <v>50210</v>
-          </cell>
-          <cell r="I32">
-            <v>94113</v>
-          </cell>
-          <cell r="J32">
-            <v>6706</v>
-          </cell>
-          <cell r="K32">
-            <v>0</v>
-          </cell>
-          <cell r="L32">
-            <v>65943</v>
-          </cell>
-          <cell r="M32">
-            <v>180</v>
-          </cell>
-          <cell r="N32">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33">
-            <v>298986</v>
-          </cell>
-          <cell r="D33">
-            <v>55924</v>
-          </cell>
-          <cell r="E33">
-            <v>0</v>
-          </cell>
-          <cell r="F33">
-            <v>22820234</v>
-          </cell>
-          <cell r="G33">
-            <v>824752</v>
-          </cell>
-          <cell r="H33">
-            <v>431908</v>
-          </cell>
-          <cell r="I33">
-            <v>894558</v>
-          </cell>
-          <cell r="J33">
-            <v>1375</v>
-          </cell>
-          <cell r="K33">
-            <v>25047</v>
-          </cell>
-          <cell r="L33">
-            <v>225346</v>
-          </cell>
-          <cell r="M33">
-            <v>1959</v>
-          </cell>
-          <cell r="N33">
-            <v>4726</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34">
-            <v>28540</v>
-          </cell>
-          <cell r="D34">
-            <v>5952</v>
-          </cell>
-          <cell r="E34">
-            <v>0</v>
-          </cell>
-          <cell r="F34">
-            <v>2928849</v>
-          </cell>
-          <cell r="G34">
-            <v>184090</v>
-          </cell>
-          <cell r="H34">
-            <v>36922</v>
-          </cell>
-          <cell r="I34">
-            <v>401829</v>
-          </cell>
-          <cell r="J34">
-            <v>7012</v>
-          </cell>
-          <cell r="K34">
-            <v>3968</v>
-          </cell>
-          <cell r="L34">
-            <v>213598</v>
-          </cell>
-          <cell r="M34">
-            <v>881</v>
-          </cell>
-          <cell r="N34">
-            <v>610</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35">
-            <v>80769</v>
-          </cell>
-          <cell r="D35">
-            <v>70483</v>
-          </cell>
-          <cell r="E35">
-            <v>0</v>
-          </cell>
-          <cell r="F35">
-            <v>51399718</v>
-          </cell>
-          <cell r="G35">
-            <v>393511</v>
-          </cell>
-          <cell r="H35">
-            <v>951998</v>
-          </cell>
-          <cell r="I35">
-            <v>3573940</v>
-          </cell>
-          <cell r="J35">
-            <v>20587</v>
-          </cell>
-          <cell r="K35">
-            <v>79456</v>
-          </cell>
-          <cell r="L35">
-            <v>499461</v>
-          </cell>
-          <cell r="M35">
-            <v>2052</v>
-          </cell>
-          <cell r="N35">
-            <v>28552</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36">
-            <v>12512</v>
-          </cell>
-          <cell r="D36">
-            <v>4930</v>
-          </cell>
-          <cell r="E36">
-            <v>0</v>
-          </cell>
-          <cell r="F36">
-            <v>12082843</v>
-          </cell>
-          <cell r="G36">
-            <v>722163</v>
-          </cell>
-          <cell r="H36">
-            <v>214209</v>
-          </cell>
-          <cell r="I36">
-            <v>580918</v>
-          </cell>
-          <cell r="J36">
-            <v>1560</v>
-          </cell>
-          <cell r="K36">
-            <v>10852</v>
-          </cell>
-          <cell r="L36">
-            <v>173042</v>
-          </cell>
-          <cell r="M36">
-            <v>2813</v>
-          </cell>
-          <cell r="N36">
-            <v>2957</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37">
-            <v>26491</v>
-          </cell>
-          <cell r="D37">
-            <v>4445</v>
-          </cell>
-          <cell r="E37">
-            <v>0</v>
-          </cell>
-          <cell r="F37">
-            <v>1148601</v>
-          </cell>
-          <cell r="G37">
-            <v>59641</v>
-          </cell>
-          <cell r="H37">
-            <v>13388</v>
-          </cell>
-          <cell r="I37">
-            <v>112523</v>
-          </cell>
-          <cell r="J37">
-            <v>341</v>
-          </cell>
-          <cell r="K37">
-            <v>241</v>
-          </cell>
-          <cell r="L37">
-            <v>48381</v>
-          </cell>
-          <cell r="M37">
-            <v>334</v>
-          </cell>
-          <cell r="N37">
-            <v>286</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="C38">
-            <v>670840</v>
-          </cell>
-          <cell r="D38">
-            <v>19131</v>
-          </cell>
-          <cell r="E38">
-            <v>0</v>
-          </cell>
-          <cell r="F38">
-            <v>20007363</v>
-          </cell>
-          <cell r="G38">
-            <v>380390</v>
-          </cell>
-          <cell r="H38">
-            <v>415005</v>
-          </cell>
-          <cell r="I38">
-            <v>1982686</v>
-          </cell>
-          <cell r="J38">
-            <v>22201</v>
-          </cell>
-          <cell r="K38">
-            <v>22477</v>
-          </cell>
-          <cell r="L38">
-            <v>434549</v>
-          </cell>
-          <cell r="M38">
-            <v>1880</v>
-          </cell>
-          <cell r="N38">
-            <v>15428</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="C39">
-            <v>191341</v>
-          </cell>
-          <cell r="D39">
-            <v>4144</v>
-          </cell>
-          <cell r="E39">
-            <v>0</v>
-          </cell>
-          <cell r="F39">
-            <v>4999435</v>
-          </cell>
-          <cell r="G39">
-            <v>207820</v>
-          </cell>
-          <cell r="H39">
-            <v>87937</v>
-          </cell>
-          <cell r="I39">
-            <v>304167</v>
-          </cell>
-          <cell r="J39">
-            <v>647</v>
-          </cell>
-          <cell r="K39">
-            <v>5189</v>
-          </cell>
-          <cell r="L39">
-            <v>192018</v>
-          </cell>
-          <cell r="M39">
-            <v>3628</v>
-          </cell>
-          <cell r="N39">
-            <v>1669</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="C40">
-            <v>112801</v>
-          </cell>
-          <cell r="D40">
-            <v>4574</v>
-          </cell>
-          <cell r="E40">
-            <v>0</v>
-          </cell>
-          <cell r="F40">
-            <v>5536815</v>
-          </cell>
-          <cell r="G40">
-            <v>174643</v>
-          </cell>
-          <cell r="H40">
-            <v>178181</v>
-          </cell>
-          <cell r="I40">
-            <v>398923</v>
-          </cell>
-          <cell r="J40">
-            <v>172</v>
-          </cell>
-          <cell r="K40">
-            <v>3474</v>
-          </cell>
-          <cell r="L40">
-            <v>49639</v>
-          </cell>
-          <cell r="M40">
-            <v>1111</v>
-          </cell>
-          <cell r="N40">
-            <v>5343</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="C41">
-            <v>87969</v>
-          </cell>
-          <cell r="D41">
-            <v>445006</v>
-          </cell>
-          <cell r="E41">
-            <v>0</v>
-          </cell>
-          <cell r="F41">
-            <v>22436342</v>
-          </cell>
-          <cell r="G41">
-            <v>892581</v>
-          </cell>
-          <cell r="H41">
-            <v>204574</v>
-          </cell>
-          <cell r="I41">
-            <v>1519311</v>
-          </cell>
-          <cell r="J41">
-            <v>28153</v>
-          </cell>
-          <cell r="K41">
-            <v>2727</v>
-          </cell>
-          <cell r="L41">
-            <v>220367</v>
-          </cell>
-          <cell r="M41">
-            <v>8522</v>
-          </cell>
-          <cell r="N41">
-            <v>902</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="C42">
-            <v>9856</v>
-          </cell>
-          <cell r="D42">
-            <v>36140</v>
-          </cell>
-          <cell r="E42">
-            <v>0</v>
-          </cell>
-          <cell r="F42">
-            <v>2154308</v>
-          </cell>
-          <cell r="G42">
-            <v>149667</v>
-          </cell>
-          <cell r="H42">
-            <v>36735</v>
-          </cell>
-          <cell r="I42">
-            <v>23178</v>
-          </cell>
-          <cell r="J42">
-            <v>2513</v>
-          </cell>
-          <cell r="K42">
-            <v>131</v>
-          </cell>
-          <cell r="L42">
-            <v>25940</v>
-          </cell>
-          <cell r="M42">
-            <v>1438</v>
-          </cell>
-          <cell r="N42">
-            <v>77</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="C43">
-            <v>150229</v>
-          </cell>
-          <cell r="D43">
-            <v>34754</v>
-          </cell>
-          <cell r="E43">
-            <v>0</v>
-          </cell>
-          <cell r="F43">
-            <v>6650192</v>
-          </cell>
-          <cell r="G43">
-            <v>325094</v>
-          </cell>
-          <cell r="H43">
-            <v>120795</v>
-          </cell>
-          <cell r="I43">
-            <v>653157</v>
-          </cell>
-          <cell r="J43">
-            <v>3939</v>
-          </cell>
-          <cell r="K43">
-            <v>12091</v>
-          </cell>
-          <cell r="L43">
-            <v>198425</v>
-          </cell>
-          <cell r="M43">
-            <v>653</v>
-          </cell>
-          <cell r="N43">
-            <v>2802</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="C44">
-            <v>17713</v>
-          </cell>
-          <cell r="D44">
-            <v>0</v>
-          </cell>
-          <cell r="E44">
-            <v>0</v>
-          </cell>
-          <cell r="F44">
-            <v>1085224</v>
-          </cell>
-          <cell r="G44">
-            <v>63994</v>
-          </cell>
-          <cell r="H44">
-            <v>24637</v>
-          </cell>
-          <cell r="I44">
-            <v>142955</v>
-          </cell>
-          <cell r="J44">
-            <v>5105</v>
-          </cell>
-          <cell r="K44">
-            <v>605</v>
-          </cell>
-          <cell r="L44">
-            <v>29178</v>
-          </cell>
-          <cell r="M44">
-            <v>1405</v>
-          </cell>
-          <cell r="N44">
-            <v>433</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="C45">
-            <v>329749</v>
-          </cell>
-          <cell r="D45">
-            <v>29097</v>
-          </cell>
-          <cell r="E45">
-            <v>0</v>
-          </cell>
-          <cell r="F45">
-            <v>8359529</v>
-          </cell>
-          <cell r="G45">
-            <v>361365</v>
-          </cell>
-          <cell r="H45">
-            <v>112027</v>
-          </cell>
-          <cell r="I45">
-            <v>418302</v>
-          </cell>
-          <cell r="J45">
-            <v>2663</v>
-          </cell>
-          <cell r="K45">
-            <v>1132</v>
-          </cell>
-          <cell r="L45">
-            <v>253230</v>
-          </cell>
-          <cell r="M45">
-            <v>2110</v>
-          </cell>
-          <cell r="N45">
-            <v>1632</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="C46">
-            <v>377323</v>
-          </cell>
-          <cell r="D46">
-            <v>5305</v>
-          </cell>
-          <cell r="E46">
-            <v>0</v>
-          </cell>
-          <cell r="F46">
-            <v>38870967</v>
-          </cell>
-          <cell r="G46">
-            <v>777202</v>
-          </cell>
-          <cell r="H46">
-            <v>437903</v>
-          </cell>
-          <cell r="I46">
-            <v>4570624</v>
-          </cell>
-          <cell r="J46">
-            <v>15712</v>
-          </cell>
-          <cell r="K46">
-            <v>65610</v>
-          </cell>
-          <cell r="L46">
-            <v>967760</v>
-          </cell>
-          <cell r="M46">
-            <v>7646</v>
-          </cell>
-          <cell r="N46">
-            <v>15618</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="C47">
-            <v>12554</v>
-          </cell>
-          <cell r="D47">
-            <v>1021</v>
-          </cell>
-          <cell r="E47">
-            <v>0</v>
-          </cell>
-          <cell r="F47">
-            <v>3548527</v>
-          </cell>
-          <cell r="G47">
-            <v>171251</v>
-          </cell>
-          <cell r="H47">
-            <v>104889</v>
-          </cell>
-          <cell r="I47">
-            <v>373632</v>
-          </cell>
-          <cell r="J47">
-            <v>0</v>
-          </cell>
-          <cell r="K47">
-            <v>22667</v>
-          </cell>
-          <cell r="L47">
-            <v>292896</v>
-          </cell>
-          <cell r="M47">
-            <v>1536</v>
-          </cell>
-          <cell r="N47">
-            <v>3086</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48">
-            <v>5624</v>
-          </cell>
-          <cell r="D48">
-            <v>46</v>
-          </cell>
-          <cell r="E48">
-            <v>0</v>
-          </cell>
-          <cell r="F48">
-            <v>1431420</v>
-          </cell>
-          <cell r="G48">
-            <v>68017</v>
-          </cell>
-          <cell r="H48">
-            <v>18933</v>
-          </cell>
-          <cell r="I48">
-            <v>18779</v>
-          </cell>
-          <cell r="J48">
-            <v>6</v>
-          </cell>
-          <cell r="K48">
-            <v>1202</v>
-          </cell>
-          <cell r="L48">
-            <v>27009</v>
-          </cell>
-          <cell r="M48">
-            <v>188</v>
-          </cell>
-          <cell r="N48">
-            <v>295</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="C49">
-            <v>16887</v>
-          </cell>
-          <cell r="D49">
-            <v>28675</v>
-          </cell>
-          <cell r="E49">
-            <v>0</v>
-          </cell>
-          <cell r="F49">
-            <v>13693436</v>
-          </cell>
-          <cell r="G49">
-            <v>287663</v>
-          </cell>
-          <cell r="H49">
-            <v>269237</v>
-          </cell>
-          <cell r="I49">
-            <v>928106</v>
-          </cell>
-          <cell r="J49">
-            <v>763</v>
-          </cell>
-          <cell r="K49">
-            <v>24711</v>
-          </cell>
-          <cell r="L49">
-            <v>437905</v>
-          </cell>
-          <cell r="M49">
-            <v>2511</v>
-          </cell>
-          <cell r="N49">
-            <v>7825</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="C50">
-            <v>157003</v>
-          </cell>
-          <cell r="D50">
-            <v>64004</v>
-          </cell>
-          <cell r="E50">
-            <v>0</v>
-          </cell>
-          <cell r="F50">
-            <v>10202942</v>
-          </cell>
-          <cell r="G50">
-            <v>703533</v>
-          </cell>
-          <cell r="H50">
-            <v>318376</v>
-          </cell>
-          <cell r="I50">
-            <v>1257240</v>
-          </cell>
-          <cell r="J50">
-            <v>21853</v>
-          </cell>
-          <cell r="K50">
-            <v>31631</v>
-          </cell>
-          <cell r="L50">
-            <v>295116</v>
-          </cell>
-          <cell r="M50">
-            <v>4500</v>
-          </cell>
-          <cell r="N50">
-            <v>32450</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="C51">
-            <v>8888</v>
-          </cell>
-          <cell r="D51">
-            <v>24128</v>
-          </cell>
-          <cell r="E51">
-            <v>0</v>
-          </cell>
-          <cell r="F51">
-            <v>2953222</v>
-          </cell>
-          <cell r="G51">
-            <v>431313</v>
-          </cell>
-          <cell r="H51">
-            <v>41486</v>
-          </cell>
-          <cell r="I51">
-            <v>190278</v>
-          </cell>
-          <cell r="J51">
-            <v>35190</v>
-          </cell>
-          <cell r="K51">
-            <v>849</v>
-          </cell>
-          <cell r="L51">
-            <v>54804</v>
-          </cell>
-          <cell r="M51">
-            <v>6041</v>
-          </cell>
-          <cell r="N51">
-            <v>381</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="C52">
-            <v>102342</v>
-          </cell>
-          <cell r="D52">
-            <v>7690</v>
-          </cell>
-          <cell r="E52">
-            <v>0</v>
-          </cell>
-          <cell r="F52">
-            <v>9680984</v>
-          </cell>
-          <cell r="G52">
-            <v>331839</v>
-          </cell>
-          <cell r="H52">
-            <v>251755</v>
-          </cell>
-          <cell r="I52">
-            <v>210429</v>
-          </cell>
-          <cell r="J52">
-            <v>6255</v>
-          </cell>
-          <cell r="K52">
-            <v>35117</v>
-          </cell>
-          <cell r="L52">
-            <v>240490</v>
-          </cell>
-          <cell r="M52">
-            <v>1117</v>
-          </cell>
-          <cell r="N52">
-            <v>530</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="C53">
-            <v>3386</v>
-          </cell>
-          <cell r="D53">
-            <v>0</v>
-          </cell>
-          <cell r="E53">
-            <v>0</v>
-          </cell>
-          <cell r="F53">
-            <v>1439610</v>
-          </cell>
-          <cell r="G53">
-            <v>103788</v>
-          </cell>
-          <cell r="H53">
-            <v>27195</v>
-          </cell>
-          <cell r="I53">
-            <v>140951</v>
-          </cell>
-          <cell r="J53">
-            <v>4</v>
-          </cell>
-          <cell r="K53">
-            <v>812</v>
-          </cell>
-          <cell r="L53">
-            <v>72312</v>
-          </cell>
-          <cell r="M53">
-            <v>563</v>
-          </cell>
-          <cell r="N53">
-            <v>176</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3047,12 +1038,12 @@
   <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
@@ -3115,23 +1106,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="13">
-        <f>D4+E4+F4-G4</f>
         <v>558827559</v>
       </c>
       <c r="D4" s="4">
-        <f>[1]K12!F2</f>
         <v>514518864</v>
       </c>
       <c r="E4" s="4">
-        <f>[1]K12!I2</f>
         <v>40253868</v>
       </c>
       <c r="F4" s="4">
-        <f>[1]K12!L2</f>
         <v>10948019</v>
       </c>
       <c r="G4" s="5">
-        <f>[1]K12!C2</f>
         <v>6893192</v>
       </c>
       <c r="I4" s="6"/>
@@ -3146,23 +1132,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="8">
-        <f>D5+E5+F5-G5</f>
         <v>7018743</v>
       </c>
       <c r="D5" s="9">
-        <f>[1]K12!F3</f>
         <v>6645480</v>
       </c>
       <c r="E5" s="9">
-        <f>[1]K12!I3</f>
         <v>509736</v>
       </c>
       <c r="F5" s="9">
-        <f>[1]K12!L3</f>
         <v>71720</v>
       </c>
       <c r="G5" s="10">
-        <f>[1]K12!C3</f>
         <v>208193</v>
       </c>
       <c r="I5" s="6"/>
@@ -3176,23 +1157,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:C55" si="0">D6+E6+F6-G6</f>
         <v>2269522</v>
       </c>
       <c r="D6" s="9">
-        <f>[1]K12!F4</f>
         <v>2142433</v>
       </c>
       <c r="E6" s="9">
-        <f>[1]K12!I4</f>
         <v>93230</v>
       </c>
       <c r="F6" s="9">
-        <f>[1]K12!L4</f>
         <v>53371</v>
       </c>
       <c r="G6" s="10">
-        <f>[1]K12!C4</f>
         <v>19512</v>
       </c>
       <c r="I6" s="6"/>
@@ -3206,23 +1182,18 @@
         <v>13</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="0"/>
         <v>7763838</v>
       </c>
       <c r="D7" s="9">
-        <f>[1]K12!F5</f>
         <v>7199266</v>
       </c>
       <c r="E7" s="9">
-        <f>[1]K12!I5</f>
         <v>487805</v>
       </c>
       <c r="F7" s="9">
-        <f>[1]K12!L5</f>
         <v>211510</v>
       </c>
       <c r="G7" s="10">
-        <f>[1]K12!C5</f>
         <v>134743</v>
       </c>
       <c r="I7" s="6"/>
@@ -3236,23 +1207,18 @@
         <v>15</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="0"/>
         <v>4899437</v>
       </c>
       <c r="D8" s="9">
-        <f>[1]K12!F6</f>
         <v>4372626</v>
       </c>
       <c r="E8" s="9">
-        <f>[1]K12!I6</f>
         <v>402905</v>
       </c>
       <c r="F8" s="9">
-        <f>[1]K12!L6</f>
         <v>209515</v>
       </c>
       <c r="G8" s="10">
-        <f>[1]K12!C6</f>
         <v>85609</v>
       </c>
       <c r="I8" s="6"/>
@@ -3266,23 +1232,18 @@
         <v>17</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="0"/>
         <v>66230070</v>
       </c>
       <c r="D9" s="9">
-        <f>[1]K12!F7</f>
         <v>60058814</v>
       </c>
       <c r="E9" s="9">
-        <f>[1]K12!I7</f>
         <v>6194845</v>
       </c>
       <c r="F9" s="9">
-        <f>[1]K12!L7</f>
         <v>569268</v>
       </c>
       <c r="G9" s="10">
-        <f>[1]K12!C7</f>
         <v>592857</v>
       </c>
       <c r="I9" s="6"/>
@@ -3297,23 +1258,18 @@
         <v>19</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
         <v>7724900</v>
       </c>
       <c r="D10" s="9">
-        <f>[1]K12!F8</f>
         <v>7291621</v>
       </c>
       <c r="E10" s="9">
-        <f>[1]K12!I8</f>
         <v>461949</v>
       </c>
       <c r="F10" s="9">
-        <f>[1]K12!L8</f>
         <v>235485</v>
       </c>
       <c r="G10" s="10">
-        <f>[1]K12!C8</f>
         <v>264155</v>
       </c>
       <c r="I10" s="6"/>
@@ -3328,23 +1284,18 @@
         <v>21</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="0"/>
         <v>8661924</v>
       </c>
       <c r="D11" s="9">
-        <f>[1]K12!F9</f>
         <v>8025065</v>
       </c>
       <c r="E11" s="9">
-        <f>[1]K12!I9</f>
         <v>556330</v>
       </c>
       <c r="F11" s="9">
-        <f>[1]K12!L9</f>
         <v>84553</v>
       </c>
       <c r="G11" s="10">
-        <f>[1]K12!C9</f>
         <v>4024</v>
       </c>
       <c r="I11" s="6"/>
@@ -3359,23 +1310,18 @@
         <v>23</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
         <v>1838482</v>
       </c>
       <c r="D12" s="9">
-        <f>[1]K12!F10</f>
         <v>1689513</v>
       </c>
       <c r="E12" s="9">
-        <f>[1]K12!I10</f>
         <v>135309</v>
       </c>
       <c r="F12" s="9">
-        <f>[1]K12!L10</f>
         <v>14275</v>
       </c>
       <c r="G12" s="10">
-        <f>[1]K12!C10</f>
         <v>615</v>
       </c>
       <c r="I12" s="6"/>
@@ -3390,23 +1336,18 @@
         <v>25</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="0"/>
         <v>2200776</v>
       </c>
       <c r="D13" s="9">
-        <f>[1]K12!F11</f>
         <v>1982666</v>
       </c>
       <c r="E13" s="9">
-        <f>[1]K12!I11</f>
         <v>201829</v>
       </c>
       <c r="F13" s="9">
-        <f>[1]K12!L11</f>
         <v>16676</v>
       </c>
       <c r="G13" s="10">
-        <f>[1]K12!C11</f>
         <v>395</v>
       </c>
       <c r="I13" s="6"/>
@@ -3421,23 +1362,18 @@
         <v>27</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="0"/>
         <v>23904413</v>
       </c>
       <c r="D14" s="9">
-        <f>[1]K12!F12</f>
         <v>22895422</v>
       </c>
       <c r="E14" s="9">
-        <f>[1]K12!I12</f>
         <v>1315074</v>
       </c>
       <c r="F14" s="9">
-        <f>[1]K12!L12</f>
         <v>530144</v>
       </c>
       <c r="G14" s="10">
-        <f>[1]K12!C12</f>
         <v>836227</v>
       </c>
       <c r="I14" s="6"/>
@@ -3452,23 +1388,18 @@
         <v>29</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="0"/>
         <v>16817996</v>
       </c>
       <c r="D15" s="9">
-        <f>[1]K12!F13</f>
         <v>15551381</v>
       </c>
       <c r="E15" s="9">
-        <f>[1]K12!I13</f>
         <v>1338505</v>
       </c>
       <c r="F15" s="9">
-        <f>[1]K12!L13</f>
         <v>227522</v>
       </c>
       <c r="G15" s="10">
-        <f>[1]K12!C13</f>
         <v>299412</v>
       </c>
       <c r="I15" s="6"/>
@@ -3483,23 +1414,18 @@
         <v>31</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="0"/>
         <v>1891438</v>
       </c>
       <c r="D16" s="9">
-        <f>[1]K12!F14</f>
         <v>1705744</v>
       </c>
       <c r="E16" s="9">
-        <f>[1]K12!I14</f>
         <v>133173</v>
       </c>
       <c r="F16" s="9">
-        <f>[1]K12!L14</f>
         <v>56918</v>
       </c>
       <c r="G16" s="10">
-        <f>[1]K12!C14</f>
         <v>4397</v>
       </c>
       <c r="I16" s="6"/>
@@ -3514,23 +1440,18 @@
         <v>33</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="0"/>
         <v>1847277</v>
       </c>
       <c r="D17" s="9">
-        <f>[1]K12!F15</f>
         <v>1783900</v>
       </c>
       <c r="E17" s="9">
-        <f>[1]K12!I15</f>
         <v>33231</v>
       </c>
       <c r="F17" s="9">
-        <f>[1]K12!L15</f>
         <v>36008</v>
       </c>
       <c r="G17" s="10">
-        <f>[1]K12!C15</f>
         <v>5862</v>
       </c>
       <c r="I17" s="6"/>
@@ -3545,23 +1466,18 @@
         <v>35</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="0"/>
         <v>24584179</v>
       </c>
       <c r="D18" s="9">
-        <f>[1]K12!F16</f>
         <v>22813755</v>
       </c>
       <c r="E18" s="9">
-        <f>[1]K12!I16</f>
         <v>1692131</v>
       </c>
       <c r="F18" s="9">
-        <f>[1]K12!L16</f>
         <v>340371</v>
       </c>
       <c r="G18" s="10">
-        <f>[1]K12!C16</f>
         <v>262078</v>
       </c>
       <c r="I18" s="6"/>
@@ -3576,23 +1492,18 @@
         <v>37</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="0"/>
         <v>9667774</v>
       </c>
       <c r="D19" s="9">
-        <f>[1]K12!F17</f>
         <v>8914008</v>
       </c>
       <c r="E19" s="9">
-        <f>[1]K12!I17</f>
         <v>335387</v>
       </c>
       <c r="F19" s="9">
-        <f>[1]K12!L17</f>
         <v>562892</v>
       </c>
       <c r="G19" s="10">
-        <f>[1]K12!C17</f>
         <v>144513</v>
       </c>
       <c r="I19" s="6"/>
@@ -3607,23 +1518,18 @@
         <v>39</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="0"/>
         <v>5854848</v>
       </c>
       <c r="D20" s="9">
-        <f>[1]K12!F18</f>
         <v>5003871</v>
       </c>
       <c r="E20" s="9">
-        <f>[1]K12!I18</f>
         <v>712442</v>
       </c>
       <c r="F20" s="9">
-        <f>[1]K12!L18</f>
         <v>188149</v>
       </c>
       <c r="G20" s="10">
-        <f>[1]K12!C18</f>
         <v>49614</v>
       </c>
       <c r="I20" s="6"/>
@@ -3638,23 +1544,18 @@
         <v>41</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="0"/>
         <v>5040328</v>
       </c>
       <c r="D21" s="9">
-        <f>[1]K12!F19</f>
         <v>4425935</v>
       </c>
       <c r="E21" s="9">
-        <f>[1]K12!I19</f>
         <v>435403</v>
       </c>
       <c r="F21" s="9">
-        <f>[1]K12!L19</f>
         <v>227319</v>
       </c>
       <c r="G21" s="10">
-        <f>[1]K12!C19</f>
         <v>48329</v>
       </c>
       <c r="I21" s="6"/>
@@ -3669,23 +1570,18 @@
         <v>43</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="0"/>
         <v>6920078</v>
       </c>
       <c r="D22" s="9">
-        <f>[1]K12!F20</f>
         <v>6144169</v>
       </c>
       <c r="E22" s="9">
-        <f>[1]K12!I20</f>
         <v>606956</v>
       </c>
       <c r="F22" s="9">
-        <f>[1]K12!L20</f>
         <v>179991</v>
       </c>
       <c r="G22" s="10">
-        <f>[1]K12!C20</f>
         <v>11038</v>
       </c>
       <c r="I22" s="6"/>
@@ -3700,23 +1596,18 @@
         <v>45</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="0"/>
         <v>8718725</v>
       </c>
       <c r="D23" s="9">
-        <f>[1]K12!F21</f>
         <v>7854670</v>
       </c>
       <c r="E23" s="9">
-        <f>[1]K12!I21</f>
         <v>637929</v>
       </c>
       <c r="F23" s="9">
-        <f>[1]K12!L21</f>
         <v>236908</v>
       </c>
       <c r="G23" s="10">
-        <f>[1]K12!C21</f>
         <v>10782</v>
       </c>
       <c r="I23" s="6"/>
@@ -3731,23 +1622,18 @@
         <v>47</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="0"/>
         <v>2335878</v>
       </c>
       <c r="D24" s="9">
-        <f>[1]K12!F22</f>
         <v>2209513</v>
       </c>
       <c r="E24" s="9">
-        <f>[1]K12!I22</f>
         <v>101329</v>
       </c>
       <c r="F24" s="9">
-        <f>[1]K12!L22</f>
         <v>30050</v>
       </c>
       <c r="G24" s="10">
-        <f>[1]K12!C22</f>
         <v>5014</v>
       </c>
       <c r="I24" s="6"/>
@@ -3762,23 +1648,18 @@
         <v>49</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="0"/>
         <v>11947759</v>
       </c>
       <c r="D25" s="9">
-        <f>[1]K12!F23</f>
         <v>10833288</v>
       </c>
       <c r="E25" s="9">
-        <f>[1]K12!I23</f>
         <v>965396</v>
       </c>
       <c r="F25" s="9">
-        <f>[1]K12!L23</f>
         <v>173759</v>
       </c>
       <c r="G25" s="10">
-        <f>[1]K12!C23</f>
         <v>24684</v>
       </c>
       <c r="I25" s="6"/>
@@ -3793,23 +1674,18 @@
         <v>51</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="0"/>
         <v>14407193</v>
       </c>
       <c r="D26" s="9">
-        <f>[1]K12!F24</f>
         <v>12929251</v>
       </c>
       <c r="E26" s="9">
-        <f>[1]K12!I24</f>
         <v>1114629</v>
       </c>
       <c r="F26" s="9">
-        <f>[1]K12!L24</f>
         <v>403540</v>
       </c>
       <c r="G26" s="10">
-        <f>[1]K12!C24</f>
         <v>40227</v>
       </c>
       <c r="I26" s="6"/>
@@ -3824,23 +1700,18 @@
         <v>53</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="0"/>
         <v>16657455</v>
       </c>
       <c r="D27" s="9">
-        <f>[1]K12!F25</f>
         <v>15881467</v>
       </c>
       <c r="E27" s="9">
-        <f>[1]K12!I25</f>
         <v>830417</v>
       </c>
       <c r="F27" s="9">
-        <f>[1]K12!L25</f>
         <v>370167</v>
       </c>
       <c r="G27" s="10">
-        <f>[1]K12!C25</f>
         <v>424596</v>
       </c>
       <c r="I27" s="6"/>
@@ -3855,23 +1726,18 @@
         <v>55</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="0"/>
         <v>9881766</v>
       </c>
       <c r="D28" s="9">
-        <f>[1]K12!F26</f>
         <v>9054773</v>
       </c>
       <c r="E28" s="9">
-        <f>[1]K12!I26</f>
         <v>772596</v>
       </c>
       <c r="F28" s="9">
-        <f>[1]K12!L26</f>
         <v>261566</v>
       </c>
       <c r="G28" s="10">
-        <f>[1]K12!C26</f>
         <v>207169</v>
       </c>
       <c r="I28" s="6"/>
@@ -3886,23 +1752,18 @@
         <v>57</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="0"/>
         <v>4215203</v>
       </c>
       <c r="D29" s="9">
-        <f>[1]K12!F27</f>
         <v>4022904</v>
       </c>
       <c r="E29" s="9">
-        <f>[1]K12!I27</f>
         <v>179082</v>
       </c>
       <c r="F29" s="9">
-        <f>[1]K12!L27</f>
         <v>150293</v>
       </c>
       <c r="G29" s="10">
-        <f>[1]K12!C27</f>
         <v>137076</v>
       </c>
       <c r="I29" s="6"/>
@@ -3917,23 +1778,18 @@
         <v>59</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="0"/>
         <v>9259412</v>
       </c>
       <c r="D30" s="9">
-        <f>[1]K12!F28</f>
         <v>8612001</v>
       </c>
       <c r="E30" s="9">
-        <f>[1]K12!I28</f>
         <v>627372</v>
       </c>
       <c r="F30" s="9">
-        <f>[1]K12!L28</f>
         <v>264102</v>
       </c>
       <c r="G30" s="10">
-        <f>[1]K12!C28</f>
         <v>244063</v>
       </c>
       <c r="I30" s="6"/>
@@ -3948,23 +1804,18 @@
         <v>61</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="0"/>
         <v>1581080</v>
       </c>
       <c r="D31" s="9">
-        <f>[1]K12!F29</f>
         <v>1501001</v>
       </c>
       <c r="E31" s="9">
-        <f>[1]K12!I29</f>
         <v>89953</v>
       </c>
       <c r="F31" s="9">
-        <f>[1]K12!L29</f>
         <v>27048</v>
       </c>
       <c r="G31" s="10">
-        <f>[1]K12!C29</f>
         <v>36922</v>
       </c>
       <c r="I31" s="6"/>
@@ -3979,23 +1830,18 @@
         <v>63</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="0"/>
         <v>3693853</v>
       </c>
       <c r="D32" s="9">
-        <f>[1]K12!F30</f>
         <v>3398332</v>
       </c>
       <c r="E32" s="9">
-        <f>[1]K12!I30</f>
         <v>224605</v>
       </c>
       <c r="F32" s="9">
-        <f>[1]K12!L30</f>
         <v>150066</v>
       </c>
       <c r="G32" s="10">
-        <f>[1]K12!C30</f>
         <v>79150</v>
       </c>
       <c r="I32" s="6"/>
@@ -4010,23 +1856,18 @@
         <v>65</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="0"/>
         <v>3862457</v>
       </c>
       <c r="D33" s="9">
-        <f>[1]K12!F31</f>
         <v>3546300</v>
       </c>
       <c r="E33" s="9">
-        <f>[1]K12!I31</f>
         <v>273721</v>
       </c>
       <c r="F33" s="9">
-        <f>[1]K12!L31</f>
         <v>47424</v>
       </c>
       <c r="G33" s="10">
-        <f>[1]K12!C31</f>
         <v>4988</v>
       </c>
       <c r="I33" s="6"/>
@@ -4041,23 +1882,18 @@
         <v>67</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="0"/>
         <v>2754045</v>
       </c>
       <c r="D34" s="9">
-        <f>[1]K12!F32</f>
         <v>2599134</v>
       </c>
       <c r="E34" s="9">
-        <f>[1]K12!I32</f>
         <v>94113</v>
       </c>
       <c r="F34" s="9">
-        <f>[1]K12!L32</f>
         <v>65943</v>
       </c>
       <c r="G34" s="10">
-        <f>[1]K12!C32</f>
         <v>5145</v>
       </c>
       <c r="I34" s="6"/>
@@ -4072,23 +1908,18 @@
         <v>69</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="0"/>
         <v>23641152</v>
       </c>
       <c r="D35" s="9">
-        <f>[1]K12!F33</f>
         <v>22820234</v>
       </c>
       <c r="E35" s="9">
-        <f>[1]K12!I33</f>
         <v>894558</v>
       </c>
       <c r="F35" s="9">
-        <f>[1]K12!L33</f>
         <v>225346</v>
       </c>
       <c r="G35" s="10">
-        <f>[1]K12!C33</f>
         <v>298986</v>
       </c>
       <c r="I35" s="6"/>
@@ -4103,23 +1934,18 @@
         <v>71</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="0"/>
         <v>3515736</v>
       </c>
       <c r="D36" s="9">
-        <f>[1]K12!F34</f>
         <v>2928849</v>
       </c>
       <c r="E36" s="9">
-        <f>[1]K12!I34</f>
         <v>401829</v>
       </c>
       <c r="F36" s="9">
-        <f>[1]K12!L34</f>
         <v>213598</v>
       </c>
       <c r="G36" s="10">
-        <f>[1]K12!C34</f>
         <v>28540</v>
       </c>
       <c r="I36" s="6"/>
@@ -4134,23 +1960,18 @@
         <v>73</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="0"/>
         <v>55392350</v>
       </c>
       <c r="D37" s="9">
-        <f>[1]K12!F35</f>
         <v>51399718</v>
       </c>
       <c r="E37" s="9">
-        <f>[1]K12!I35</f>
         <v>3573940</v>
       </c>
       <c r="F37" s="9">
-        <f>[1]K12!L35</f>
         <v>499461</v>
       </c>
       <c r="G37" s="10">
-        <f>[1]K12!C35</f>
         <v>80769</v>
       </c>
       <c r="I37" s="6"/>
@@ -4165,23 +1986,18 @@
         <v>75</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="0"/>
         <v>12824291</v>
       </c>
       <c r="D38" s="9">
-        <f>[1]K12!F36</f>
         <v>12082843</v>
       </c>
       <c r="E38" s="9">
-        <f>[1]K12!I36</f>
         <v>580918</v>
       </c>
       <c r="F38" s="9">
-        <f>[1]K12!L36</f>
         <v>173042</v>
       </c>
       <c r="G38" s="10">
-        <f>[1]K12!C36</f>
         <v>12512</v>
       </c>
       <c r="I38" s="6"/>
@@ -4196,23 +2012,18 @@
         <v>77</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="0"/>
         <v>1283014</v>
       </c>
       <c r="D39" s="9">
-        <f>[1]K12!F37</f>
         <v>1148601</v>
       </c>
       <c r="E39" s="9">
-        <f>[1]K12!I37</f>
         <v>112523</v>
       </c>
       <c r="F39" s="9">
-        <f>[1]K12!L37</f>
         <v>48381</v>
       </c>
       <c r="G39" s="10">
-        <f>[1]K12!C37</f>
         <v>26491</v>
       </c>
       <c r="I39" s="6"/>
@@ -4227,23 +2038,18 @@
         <v>79</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="0"/>
         <v>21753758</v>
       </c>
       <c r="D40" s="9">
-        <f>[1]K12!F38</f>
         <v>20007363</v>
       </c>
       <c r="E40" s="9">
-        <f>[1]K12!I38</f>
         <v>1982686</v>
       </c>
       <c r="F40" s="9">
-        <f>[1]K12!L38</f>
         <v>434549</v>
       </c>
       <c r="G40" s="10">
-        <f>[1]K12!C38</f>
         <v>670840</v>
       </c>
       <c r="I40" s="6"/>
@@ -4258,23 +2064,18 @@
         <v>81</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="0"/>
         <v>5304279</v>
       </c>
       <c r="D41" s="9">
-        <f>[1]K12!F39</f>
         <v>4999435</v>
       </c>
       <c r="E41" s="9">
-        <f>[1]K12!I39</f>
         <v>304167</v>
       </c>
       <c r="F41" s="9">
-        <f>[1]K12!L39</f>
         <v>192018</v>
       </c>
       <c r="G41" s="10">
-        <f>[1]K12!C39</f>
         <v>191341</v>
       </c>
       <c r="I41" s="6"/>
@@ -4289,23 +2090,18 @@
         <v>83</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="0"/>
         <v>5872576</v>
       </c>
       <c r="D42" s="9">
-        <f>[1]K12!F40</f>
         <v>5536815</v>
       </c>
       <c r="E42" s="9">
-        <f>[1]K12!I40</f>
         <v>398923</v>
       </c>
       <c r="F42" s="9">
-        <f>[1]K12!L40</f>
         <v>49639</v>
       </c>
       <c r="G42" s="10">
-        <f>[1]K12!C40</f>
         <v>112801</v>
       </c>
       <c r="I42" s="6"/>
@@ -4320,23 +2116,18 @@
         <v>85</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="0"/>
         <v>24088051</v>
       </c>
       <c r="D43" s="9">
-        <f>[1]K12!F41</f>
         <v>22436342</v>
       </c>
       <c r="E43" s="9">
-        <f>[1]K12!I41</f>
         <v>1519311</v>
       </c>
       <c r="F43" s="9">
-        <f>[1]K12!L41</f>
         <v>220367</v>
       </c>
       <c r="G43" s="10">
-        <f>[1]K12!C41</f>
         <v>87969</v>
       </c>
       <c r="I43" s="6"/>
@@ -4351,23 +2142,18 @@
         <v>87</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="0"/>
         <v>2193570</v>
       </c>
       <c r="D44" s="9">
-        <f>[1]K12!F42</f>
         <v>2154308</v>
       </c>
       <c r="E44" s="9">
-        <f>[1]K12!I42</f>
         <v>23178</v>
       </c>
       <c r="F44" s="9">
-        <f>[1]K12!L42</f>
         <v>25940</v>
       </c>
       <c r="G44" s="10">
-        <f>[1]K12!C42</f>
         <v>9856</v>
       </c>
       <c r="I44" s="6"/>
@@ -4382,23 +2168,18 @@
         <v>89</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="0"/>
         <v>7351545</v>
       </c>
       <c r="D45" s="9">
-        <f>[1]K12!F43</f>
         <v>6650192</v>
       </c>
       <c r="E45" s="9">
-        <f>[1]K12!I43</f>
         <v>653157</v>
       </c>
       <c r="F45" s="9">
-        <f>[1]K12!L43</f>
         <v>198425</v>
       </c>
       <c r="G45" s="10">
-        <f>[1]K12!C43</f>
         <v>150229</v>
       </c>
       <c r="I45" s="6"/>
@@ -4413,23 +2194,18 @@
         <v>91</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="0"/>
         <v>1239644</v>
       </c>
       <c r="D46" s="9">
-        <f>[1]K12!F44</f>
         <v>1085224</v>
       </c>
       <c r="E46" s="9">
-        <f>[1]K12!I44</f>
         <v>142955</v>
       </c>
       <c r="F46" s="9">
-        <f>[1]K12!L44</f>
         <v>29178</v>
       </c>
       <c r="G46" s="10">
-        <f>[1]K12!C44</f>
         <v>17713</v>
       </c>
       <c r="I46" s="6"/>
@@ -4444,23 +2220,18 @@
         <v>93</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="0"/>
         <v>8701312</v>
       </c>
       <c r="D47" s="9">
-        <f>[1]K12!F45</f>
         <v>8359529</v>
       </c>
       <c r="E47" s="9">
-        <f>[1]K12!I45</f>
         <v>418302</v>
       </c>
       <c r="F47" s="9">
-        <f>[1]K12!L45</f>
         <v>253230</v>
       </c>
       <c r="G47" s="10">
-        <f>[1]K12!C45</f>
         <v>329749</v>
       </c>
       <c r="I47" s="6"/>
@@ -4475,23 +2246,18 @@
         <v>95</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="0"/>
         <v>44032028</v>
       </c>
       <c r="D48" s="9">
-        <f>[1]K12!F46</f>
         <v>38870967</v>
       </c>
       <c r="E48" s="9">
-        <f>[1]K12!I46</f>
         <v>4570624</v>
       </c>
       <c r="F48" s="9">
-        <f>[1]K12!L46</f>
         <v>967760</v>
       </c>
       <c r="G48" s="10">
-        <f>[1]K12!C46</f>
         <v>377323</v>
       </c>
       <c r="I48" s="6"/>
@@ -4506,23 +2272,18 @@
         <v>97</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="0"/>
         <v>4202501</v>
       </c>
       <c r="D49" s="9">
-        <f>[1]K12!F47</f>
         <v>3548527</v>
       </c>
       <c r="E49" s="9">
-        <f>[1]K12!I47</f>
         <v>373632</v>
       </c>
       <c r="F49" s="9">
-        <f>[1]K12!L47</f>
         <v>292896</v>
       </c>
       <c r="G49" s="10">
-        <f>[1]K12!C47</f>
         <v>12554</v>
       </c>
       <c r="I49" s="6"/>
@@ -4537,23 +2298,18 @@
         <v>99</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="0"/>
         <v>1471584</v>
       </c>
       <c r="D50" s="9">
-        <f>[1]K12!F48</f>
         <v>1431420</v>
       </c>
       <c r="E50" s="9">
-        <f>[1]K12!I48</f>
         <v>18779</v>
       </c>
       <c r="F50" s="9">
-        <f>[1]K12!L48</f>
         <v>27009</v>
       </c>
       <c r="G50" s="10">
-        <f>[1]K12!C48</f>
         <v>5624</v>
       </c>
       <c r="I50" s="6"/>
@@ -4568,23 +2324,18 @@
         <v>101</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="0"/>
         <v>15042560</v>
       </c>
       <c r="D51" s="9">
-        <f>[1]K12!F49</f>
         <v>13693436</v>
       </c>
       <c r="E51" s="9">
-        <f>[1]K12!I49</f>
         <v>928106</v>
       </c>
       <c r="F51" s="9">
-        <f>[1]K12!L49</f>
         <v>437905</v>
       </c>
       <c r="G51" s="10">
-        <f>[1]K12!C49</f>
         <v>16887</v>
       </c>
       <c r="I51" s="6"/>
@@ -4599,23 +2350,18 @@
         <v>103</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="0"/>
         <v>11598295</v>
       </c>
       <c r="D52" s="9">
-        <f>[1]K12!F50</f>
         <v>10202942</v>
       </c>
       <c r="E52" s="9">
-        <f>[1]K12!I50</f>
         <v>1257240</v>
       </c>
       <c r="F52" s="9">
-        <f>[1]K12!L50</f>
         <v>295116</v>
       </c>
       <c r="G52" s="10">
-        <f>[1]K12!C50</f>
         <v>157003</v>
       </c>
       <c r="I52" s="6"/>
@@ -4630,23 +2376,18 @@
         <v>105</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="0"/>
         <v>3189416</v>
       </c>
       <c r="D53" s="9">
-        <f>[1]K12!F51</f>
         <v>2953222</v>
       </c>
       <c r="E53" s="9">
-        <f>[1]K12!I51</f>
         <v>190278</v>
       </c>
       <c r="F53" s="9">
-        <f>[1]K12!L51</f>
         <v>54804</v>
       </c>
       <c r="G53" s="10">
-        <f>[1]K12!C51</f>
         <v>8888</v>
       </c>
       <c r="I53" s="6"/>
@@ -4661,23 +2402,18 @@
         <v>107</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="0"/>
         <v>10029561</v>
       </c>
       <c r="D54" s="9">
-        <f>[1]K12!F52</f>
         <v>9680984</v>
       </c>
       <c r="E54" s="9">
-        <f>[1]K12!I52</f>
         <v>210429</v>
       </c>
       <c r="F54" s="9">
-        <f>[1]K12!L52</f>
         <v>240490</v>
       </c>
       <c r="G54" s="10">
-        <f>[1]K12!C52</f>
         <v>102342</v>
       </c>
       <c r="I54" s="6"/>
@@ -4692,23 +2428,18 @@
         <v>109</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="0"/>
         <v>1649487</v>
       </c>
       <c r="D55" s="9">
-        <f>[1]K12!F53</f>
         <v>1439610</v>
       </c>
       <c r="E55" s="9">
-        <f>[1]K12!I53</f>
         <v>140951</v>
       </c>
       <c r="F55" s="9">
-        <f>[1]K12!L53</f>
         <v>72312</v>
       </c>
       <c r="G55" s="10">
-        <f>[1]K12!C53</f>
         <v>3386</v>
       </c>
       <c r="I55" s="6"/>
@@ -4806,8 +2537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I48" sqref="I48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -4875,23 +2606,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="13">
-        <f>D4+E4+F4-G4</f>
         <v>15948214</v>
       </c>
       <c r="D4" s="4">
-        <f>[1]K12!G2</f>
         <v>16228255</v>
       </c>
       <c r="E4" s="4">
-        <f>[1]K12!J2</f>
         <v>643966</v>
       </c>
       <c r="F4" s="4">
-        <f>[1]K12!M2</f>
         <v>144866</v>
       </c>
       <c r="G4" s="5">
-        <f>[1]K12!D2</f>
         <v>1068873</v>
       </c>
       <c r="I4" s="6"/>
@@ -4906,23 +2632,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="8">
-        <f>D5+E5+F5-G5</f>
         <v>296233</v>
       </c>
       <c r="D5" s="9">
-        <f>[1]K12!G3</f>
         <v>313253</v>
       </c>
       <c r="E5" s="9">
-        <f>[1]K12!J3</f>
         <v>695</v>
       </c>
       <c r="F5" s="9">
-        <f>[1]K12!M3</f>
         <v>13769</v>
       </c>
       <c r="G5" s="10">
-        <f>[1]K12!D3</f>
         <v>31484</v>
       </c>
       <c r="I5" s="6"/>
@@ -4936,23 +2657,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:C55" si="0">D6+E6+F6-G6</f>
         <v>95738</v>
       </c>
       <c r="D6" s="9">
-        <f>[1]K12!G4</f>
         <v>98699</v>
       </c>
       <c r="E6" s="9">
-        <f>[1]K12!J4</f>
         <v>837</v>
       </c>
       <c r="F6" s="9">
-        <f>[1]K12!M4</f>
         <v>65</v>
       </c>
       <c r="G6" s="10">
-        <f>[1]K12!D4</f>
         <v>3863</v>
       </c>
       <c r="I6" s="6"/>
@@ -4966,23 +2682,18 @@
         <v>13</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="0"/>
         <v>257047</v>
       </c>
       <c r="D7" s="9">
-        <f>[1]K12!G5</f>
         <v>275494</v>
       </c>
       <c r="E7" s="9">
-        <f>[1]K12!J5</f>
         <v>13</v>
       </c>
       <c r="F7" s="9">
-        <f>[1]K12!M5</f>
         <v>8967</v>
       </c>
       <c r="G7" s="10">
-        <f>[1]K12!D5</f>
         <v>27427</v>
       </c>
       <c r="I7" s="6"/>
@@ -4996,23 +2707,18 @@
         <v>15</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="0"/>
         <v>132143</v>
       </c>
       <c r="D8" s="9">
-        <f>[1]K12!G6</f>
         <v>132195</v>
       </c>
       <c r="E8" s="9">
-        <f>[1]K12!J6</f>
         <v>1751</v>
       </c>
       <c r="F8" s="9">
-        <f>[1]K12!M6</f>
         <v>0</v>
       </c>
       <c r="G8" s="10">
-        <f>[1]K12!D6</f>
         <v>1803</v>
       </c>
       <c r="I8" s="6"/>
@@ -5026,23 +2732,18 @@
         <v>17</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="0"/>
         <v>787486</v>
       </c>
       <c r="D9" s="9">
-        <f>[1]K12!G7</f>
         <v>790808</v>
       </c>
       <c r="E9" s="9">
-        <f>[1]K12!J7</f>
         <v>1909</v>
       </c>
       <c r="F9" s="9">
-        <f>[1]K12!M7</f>
         <v>267</v>
       </c>
       <c r="G9" s="10">
-        <f>[1]K12!D7</f>
         <v>5498</v>
       </c>
       <c r="I9" s="6"/>
@@ -5057,23 +2758,18 @@
         <v>19</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
         <v>271221</v>
       </c>
       <c r="D10" s="9">
-        <f>[1]K12!G8</f>
         <v>106168</v>
       </c>
       <c r="E10" s="9">
-        <f>[1]K12!J8</f>
         <v>177296</v>
       </c>
       <c r="F10" s="9">
-        <f>[1]K12!M8</f>
         <v>2379</v>
       </c>
       <c r="G10" s="10">
-        <f>[1]K12!D8</f>
         <v>14622</v>
       </c>
       <c r="I10" s="6"/>
@@ -5088,23 +2784,18 @@
         <v>21</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="0"/>
         <v>326516</v>
       </c>
       <c r="D11" s="9">
-        <f>[1]K12!G9</f>
         <v>297990</v>
       </c>
       <c r="E11" s="9">
-        <f>[1]K12!J9</f>
         <v>22155</v>
       </c>
       <c r="F11" s="9">
-        <f>[1]K12!M9</f>
         <v>8464</v>
       </c>
       <c r="G11" s="10">
-        <f>[1]K12!D9</f>
         <v>2093</v>
       </c>
       <c r="I11" s="6"/>
@@ -5119,23 +2810,18 @@
         <v>23</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
         <v>154593</v>
       </c>
       <c r="D12" s="9">
-        <f>[1]K12!G10</f>
         <v>150183</v>
       </c>
       <c r="E12" s="9">
-        <f>[1]K12!J10</f>
         <v>0</v>
       </c>
       <c r="F12" s="9">
-        <f>[1]K12!M10</f>
         <v>4410</v>
       </c>
       <c r="G12" s="10">
-        <f>[1]K12!D10</f>
         <v>0</v>
       </c>
       <c r="I12" s="6"/>
@@ -5150,23 +2836,18 @@
         <v>25</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="9">
-        <f>[1]K12!G11</f>
         <v>0</v>
       </c>
       <c r="E13" s="9">
-        <f>[1]K12!J11</f>
         <v>0</v>
       </c>
       <c r="F13" s="9">
-        <f>[1]K12!M11</f>
         <v>0</v>
       </c>
       <c r="G13" s="10">
-        <f>[1]K12!D11</f>
         <v>0</v>
       </c>
       <c r="I13" s="6"/>
@@ -5181,23 +2862,18 @@
         <v>27</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="0"/>
         <v>1330441</v>
       </c>
       <c r="D14" s="9">
-        <f>[1]K12!G12</f>
         <v>1218032</v>
       </c>
       <c r="E14" s="9">
-        <f>[1]K12!J12</f>
         <v>107530</v>
       </c>
       <c r="F14" s="9">
-        <f>[1]K12!M12</f>
         <v>6868</v>
       </c>
       <c r="G14" s="10">
-        <f>[1]K12!D12</f>
         <v>1989</v>
       </c>
       <c r="I14" s="6"/>
@@ -5212,23 +2888,18 @@
         <v>29</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="0"/>
         <v>950489</v>
       </c>
       <c r="D15" s="9">
-        <f>[1]K12!G13</f>
         <v>839918</v>
       </c>
       <c r="E15" s="9">
-        <f>[1]K12!J13</f>
         <v>117817</v>
       </c>
       <c r="F15" s="9">
-        <f>[1]K12!M13</f>
         <v>679</v>
       </c>
       <c r="G15" s="10">
-        <f>[1]K12!D13</f>
         <v>7925</v>
       </c>
       <c r="I15" s="6"/>
@@ -5243,23 +2914,18 @@
         <v>31</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="0"/>
         <v>8610</v>
       </c>
       <c r="D16" s="9">
-        <f>[1]K12!G14</f>
         <v>8200</v>
       </c>
       <c r="E16" s="9">
-        <f>[1]K12!J14</f>
         <v>1</v>
       </c>
       <c r="F16" s="9">
-        <f>[1]K12!M14</f>
         <v>409</v>
       </c>
       <c r="G16" s="10">
-        <f>[1]K12!D14</f>
         <v>0</v>
       </c>
       <c r="I16" s="6"/>
@@ -5274,23 +2940,18 @@
         <v>33</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="0"/>
         <v>75468</v>
       </c>
       <c r="D17" s="9">
-        <f>[1]K12!G15</f>
         <v>67599</v>
       </c>
       <c r="E17" s="9">
-        <f>[1]K12!J15</f>
         <v>8517</v>
       </c>
       <c r="F17" s="9">
-        <f>[1]K12!M15</f>
         <v>388</v>
       </c>
       <c r="G17" s="10">
-        <f>[1]K12!D15</f>
         <v>1036</v>
       </c>
       <c r="I17" s="6"/>
@@ -5305,23 +2966,18 @@
         <v>35</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="0"/>
         <v>511578</v>
       </c>
       <c r="D18" s="9">
-        <f>[1]K12!G16</f>
         <v>509299</v>
       </c>
       <c r="E18" s="9">
-        <f>[1]K12!J16</f>
         <v>27</v>
       </c>
       <c r="F18" s="9">
-        <f>[1]K12!M16</f>
         <v>3550</v>
       </c>
       <c r="G18" s="10">
-        <f>[1]K12!D16</f>
         <v>1298</v>
       </c>
       <c r="I18" s="6"/>
@@ -5336,23 +2992,18 @@
         <v>37</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="0"/>
         <v>236403</v>
       </c>
       <c r="D19" s="9">
-        <f>[1]K12!G17</f>
         <v>235415</v>
       </c>
       <c r="E19" s="9">
-        <f>[1]K12!J17</f>
         <v>91</v>
       </c>
       <c r="F19" s="9">
-        <f>[1]K12!M17</f>
         <v>922</v>
       </c>
       <c r="G19" s="10">
-        <f>[1]K12!D17</f>
         <v>25</v>
       </c>
       <c r="I19" s="6"/>
@@ -5367,23 +3018,18 @@
         <v>39</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="0"/>
         <v>142765</v>
       </c>
       <c r="D20" s="9">
-        <f>[1]K12!G18</f>
         <v>140701</v>
       </c>
       <c r="E20" s="9">
-        <f>[1]K12!J18</f>
         <v>0</v>
       </c>
       <c r="F20" s="9">
-        <f>[1]K12!M18</f>
         <v>2616</v>
       </c>
       <c r="G20" s="10">
-        <f>[1]K12!D18</f>
         <v>552</v>
       </c>
       <c r="I20" s="6"/>
@@ -5398,23 +3044,18 @@
         <v>41</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="0"/>
         <v>124802</v>
       </c>
       <c r="D21" s="9">
-        <f>[1]K12!G19</f>
         <v>125125</v>
       </c>
       <c r="E21" s="9">
-        <f>[1]K12!J19</f>
         <v>313</v>
       </c>
       <c r="F21" s="9">
-        <f>[1]K12!M19</f>
         <v>1191</v>
       </c>
       <c r="G21" s="10">
-        <f>[1]K12!D19</f>
         <v>1827</v>
       </c>
       <c r="I21" s="6"/>
@@ -5429,23 +3070,18 @@
         <v>43</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="0"/>
         <v>214268</v>
       </c>
       <c r="D22" s="9">
-        <f>[1]K12!G20</f>
         <v>211680</v>
       </c>
       <c r="E22" s="9">
-        <f>[1]K12!J20</f>
         <v>6</v>
       </c>
       <c r="F22" s="9">
-        <f>[1]K12!M20</f>
         <v>4968</v>
       </c>
       <c r="G22" s="10">
-        <f>[1]K12!D20</f>
         <v>2386</v>
       </c>
       <c r="I22" s="6"/>
@@ -5460,23 +3096,18 @@
         <v>45</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="0"/>
         <v>586199</v>
       </c>
       <c r="D23" s="9">
-        <f>[1]K12!G21</f>
         <v>593464</v>
       </c>
       <c r="E23" s="9">
-        <f>[1]K12!J21</f>
         <v>4293</v>
       </c>
       <c r="F23" s="9">
-        <f>[1]K12!M21</f>
         <v>6100</v>
       </c>
       <c r="G23" s="10">
-        <f>[1]K12!D21</f>
         <v>17658</v>
       </c>
       <c r="I23" s="6"/>
@@ -5491,23 +3122,18 @@
         <v>47</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="0"/>
         <v>113124</v>
       </c>
       <c r="D24" s="9">
-        <f>[1]K12!G22</f>
         <v>109322</v>
       </c>
       <c r="E24" s="9">
-        <f>[1]K12!J22</f>
         <v>0</v>
       </c>
       <c r="F24" s="9">
-        <f>[1]K12!M22</f>
         <v>11628</v>
       </c>
       <c r="G24" s="10">
-        <f>[1]K12!D22</f>
         <v>7826</v>
       </c>
       <c r="I24" s="6"/>
@@ -5522,23 +3148,18 @@
         <v>49</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="0"/>
         <v>276715</v>
       </c>
       <c r="D25" s="9">
-        <f>[1]K12!G23</f>
         <v>275050</v>
       </c>
       <c r="E25" s="9">
-        <f>[1]K12!J23</f>
         <v>390</v>
       </c>
       <c r="F25" s="9">
-        <f>[1]K12!M23</f>
         <v>1463</v>
       </c>
       <c r="G25" s="10">
-        <f>[1]K12!D23</f>
         <v>188</v>
       </c>
       <c r="I25" s="6"/>
@@ -5553,23 +3174,18 @@
         <v>51</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="0"/>
         <v>636915</v>
       </c>
       <c r="D26" s="9">
-        <f>[1]K12!G24</f>
         <v>637558</v>
       </c>
       <c r="E26" s="9">
-        <f>[1]K12!J24</f>
         <v>25</v>
       </c>
       <c r="F26" s="9">
-        <f>[1]K12!M24</f>
         <v>1804</v>
       </c>
       <c r="G26" s="10">
-        <f>[1]K12!D24</f>
         <v>2472</v>
       </c>
       <c r="I26" s="6"/>
@@ -5584,23 +3200,18 @@
         <v>53</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="0"/>
         <v>129096</v>
       </c>
       <c r="D27" s="9">
-        <f>[1]K12!G25</f>
         <v>135857</v>
       </c>
       <c r="E27" s="9">
-        <f>[1]K12!J25</f>
         <v>71</v>
       </c>
       <c r="F27" s="9">
-        <f>[1]K12!M25</f>
         <v>353</v>
       </c>
       <c r="G27" s="10">
-        <f>[1]K12!D25</f>
         <v>7185</v>
       </c>
       <c r="I27" s="6"/>
@@ -5615,23 +3226,18 @@
         <v>55</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="0"/>
         <v>384413</v>
       </c>
       <c r="D28" s="9">
-        <f>[1]K12!G26</f>
         <v>434214</v>
       </c>
       <c r="E28" s="9">
-        <f>[1]K12!J26</f>
         <v>17128</v>
       </c>
       <c r="F28" s="9">
-        <f>[1]K12!M26</f>
         <v>3398</v>
       </c>
       <c r="G28" s="10">
-        <f>[1]K12!D26</f>
         <v>70327</v>
       </c>
       <c r="I28" s="6"/>
@@ -5646,23 +3252,18 @@
         <v>57</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="0"/>
         <v>213932</v>
       </c>
       <c r="D29" s="9">
-        <f>[1]K12!G27</f>
         <v>220155</v>
       </c>
       <c r="E29" s="9">
-        <f>[1]K12!J27</f>
         <v>171</v>
       </c>
       <c r="F29" s="9">
-        <f>[1]K12!M27</f>
         <v>3149</v>
       </c>
       <c r="G29" s="10">
-        <f>[1]K12!D27</f>
         <v>9543</v>
       </c>
       <c r="I29" s="6"/>
@@ -5677,23 +3278,18 @@
         <v>59</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="0"/>
         <v>313850</v>
       </c>
       <c r="D30" s="9">
-        <f>[1]K12!G28</f>
         <v>312273</v>
       </c>
       <c r="E30" s="9">
-        <f>[1]K12!J28</f>
         <v>146</v>
       </c>
       <c r="F30" s="9">
-        <f>[1]K12!M28</f>
         <v>1594</v>
       </c>
       <c r="G30" s="10">
-        <f>[1]K12!D28</f>
         <v>163</v>
       </c>
       <c r="I30" s="6"/>
@@ -5708,23 +3304,18 @@
         <v>61</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="0"/>
         <v>89862</v>
       </c>
       <c r="D31" s="9">
-        <f>[1]K12!G29</f>
         <v>92136</v>
       </c>
       <c r="E31" s="9">
-        <f>[1]K12!J29</f>
         <v>0</v>
       </c>
       <c r="F31" s="9">
-        <f>[1]K12!M29</f>
         <v>1378</v>
       </c>
       <c r="G31" s="10">
-        <f>[1]K12!D29</f>
         <v>3652</v>
       </c>
       <c r="I31" s="6"/>
@@ -5739,23 +3330,18 @@
         <v>63</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="0"/>
         <v>137185</v>
       </c>
       <c r="D32" s="9">
-        <f>[1]K12!G30</f>
         <v>137275</v>
       </c>
       <c r="E32" s="9">
-        <f>[1]K12!J30</f>
         <v>27</v>
       </c>
       <c r="F32" s="9">
-        <f>[1]K12!M30</f>
         <v>119</v>
       </c>
       <c r="G32" s="10">
-        <f>[1]K12!D30</f>
         <v>236</v>
       </c>
       <c r="I32" s="6"/>
@@ -5770,23 +3356,18 @@
         <v>65</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="0"/>
         <v>99864</v>
       </c>
       <c r="D33" s="9">
-        <f>[1]K12!G31</f>
         <v>98987</v>
       </c>
       <c r="E33" s="9">
-        <f>[1]K12!J31</f>
         <v>0</v>
       </c>
       <c r="F33" s="9">
-        <f>[1]K12!M31</f>
         <v>900</v>
       </c>
       <c r="G33" s="10">
-        <f>[1]K12!D31</f>
         <v>23</v>
       </c>
       <c r="I33" s="6"/>
@@ -5801,23 +3382,18 @@
         <v>67</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="0"/>
         <v>53451</v>
       </c>
       <c r="D34" s="9">
-        <f>[1]K12!G32</f>
         <v>46888</v>
       </c>
       <c r="E34" s="9">
-        <f>[1]K12!J32</f>
         <v>6706</v>
       </c>
       <c r="F34" s="9">
-        <f>[1]K12!M32</f>
         <v>180</v>
       </c>
       <c r="G34" s="10">
-        <f>[1]K12!D32</f>
         <v>323</v>
       </c>
       <c r="I34" s="6"/>
@@ -5832,23 +3408,18 @@
         <v>69</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="0"/>
         <v>772162</v>
       </c>
       <c r="D35" s="9">
-        <f>[1]K12!G33</f>
         <v>824752</v>
       </c>
       <c r="E35" s="9">
-        <f>[1]K12!J33</f>
         <v>1375</v>
       </c>
       <c r="F35" s="9">
-        <f>[1]K12!M33</f>
         <v>1959</v>
       </c>
       <c r="G35" s="10">
-        <f>[1]K12!D33</f>
         <v>55924</v>
       </c>
       <c r="I35" s="6"/>
@@ -5863,23 +3434,18 @@
         <v>71</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="0"/>
         <v>186031</v>
       </c>
       <c r="D36" s="9">
-        <f>[1]K12!G34</f>
         <v>184090</v>
       </c>
       <c r="E36" s="9">
-        <f>[1]K12!J34</f>
         <v>7012</v>
       </c>
       <c r="F36" s="9">
-        <f>[1]K12!M34</f>
         <v>881</v>
       </c>
       <c r="G36" s="10">
-        <f>[1]K12!D34</f>
         <v>5952</v>
       </c>
       <c r="I36" s="6"/>
@@ -5894,23 +3460,18 @@
         <v>73</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="0"/>
         <v>345667</v>
       </c>
       <c r="D37" s="9">
-        <f>[1]K12!G35</f>
         <v>393511</v>
       </c>
       <c r="E37" s="9">
-        <f>[1]K12!J35</f>
         <v>20587</v>
       </c>
       <c r="F37" s="9">
-        <f>[1]K12!M35</f>
         <v>2052</v>
       </c>
       <c r="G37" s="10">
-        <f>[1]K12!D35</f>
         <v>70483</v>
       </c>
       <c r="I37" s="6"/>
@@ -5925,23 +3486,18 @@
         <v>75</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="0"/>
         <v>721606</v>
       </c>
       <c r="D38" s="9">
-        <f>[1]K12!G36</f>
         <v>722163</v>
       </c>
       <c r="E38" s="9">
-        <f>[1]K12!J36</f>
         <v>1560</v>
       </c>
       <c r="F38" s="9">
-        <f>[1]K12!M36</f>
         <v>2813</v>
       </c>
       <c r="G38" s="10">
-        <f>[1]K12!D36</f>
         <v>4930</v>
       </c>
       <c r="I38" s="6"/>
@@ -5956,23 +3512,18 @@
         <v>77</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="0"/>
         <v>55871</v>
       </c>
       <c r="D39" s="9">
-        <f>[1]K12!G37</f>
         <v>59641</v>
       </c>
       <c r="E39" s="9">
-        <f>[1]K12!J37</f>
         <v>341</v>
       </c>
       <c r="F39" s="9">
-        <f>[1]K12!M37</f>
         <v>334</v>
       </c>
       <c r="G39" s="10">
-        <f>[1]K12!D37</f>
         <v>4445</v>
       </c>
       <c r="I39" s="6"/>
@@ -5987,23 +3538,18 @@
         <v>79</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="0"/>
         <v>385340</v>
       </c>
       <c r="D40" s="9">
-        <f>[1]K12!G38</f>
         <v>380390</v>
       </c>
       <c r="E40" s="9">
-        <f>[1]K12!J38</f>
         <v>22201</v>
       </c>
       <c r="F40" s="9">
-        <f>[1]K12!M38</f>
         <v>1880</v>
       </c>
       <c r="G40" s="10">
-        <f>[1]K12!D38</f>
         <v>19131</v>
       </c>
       <c r="I40" s="6"/>
@@ -6018,23 +3564,18 @@
         <v>81</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="0"/>
         <v>207951</v>
       </c>
       <c r="D41" s="9">
-        <f>[1]K12!G39</f>
         <v>207820</v>
       </c>
       <c r="E41" s="9">
-        <f>[1]K12!J39</f>
         <v>647</v>
       </c>
       <c r="F41" s="9">
-        <f>[1]K12!M39</f>
         <v>3628</v>
       </c>
       <c r="G41" s="10">
-        <f>[1]K12!D39</f>
         <v>4144</v>
       </c>
       <c r="I41" s="6"/>
@@ -6049,23 +3590,18 @@
         <v>83</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="0"/>
         <v>171352</v>
       </c>
       <c r="D42" s="9">
-        <f>[1]K12!G40</f>
         <v>174643</v>
       </c>
       <c r="E42" s="9">
-        <f>[1]K12!J40</f>
         <v>172</v>
       </c>
       <c r="F42" s="9">
-        <f>[1]K12!M40</f>
         <v>1111</v>
       </c>
       <c r="G42" s="10">
-        <f>[1]K12!D40</f>
         <v>4574</v>
       </c>
       <c r="I42" s="6"/>
@@ -6080,23 +3616,18 @@
         <v>85</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="0"/>
         <v>484250</v>
       </c>
       <c r="D43" s="9">
-        <f>[1]K12!G41</f>
         <v>892581</v>
       </c>
       <c r="E43" s="9">
-        <f>[1]K12!J41</f>
         <v>28153</v>
       </c>
       <c r="F43" s="9">
-        <f>[1]K12!M41</f>
         <v>8522</v>
       </c>
       <c r="G43" s="10">
-        <f>[1]K12!D41</f>
         <v>445006</v>
       </c>
       <c r="I43" s="6"/>
@@ -6111,23 +3642,18 @@
         <v>87</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="0"/>
         <v>117478</v>
       </c>
       <c r="D44" s="9">
-        <f>[1]K12!G42</f>
         <v>149667</v>
       </c>
       <c r="E44" s="9">
-        <f>[1]K12!J42</f>
         <v>2513</v>
       </c>
       <c r="F44" s="9">
-        <f>[1]K12!M42</f>
         <v>1438</v>
       </c>
       <c r="G44" s="10">
-        <f>[1]K12!D42</f>
         <v>36140</v>
       </c>
       <c r="I44" s="6"/>
@@ -6142,23 +3668,18 @@
         <v>89</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="0"/>
         <v>294932</v>
       </c>
       <c r="D45" s="9">
-        <f>[1]K12!G43</f>
         <v>325094</v>
       </c>
       <c r="E45" s="9">
-        <f>[1]K12!J43</f>
         <v>3939</v>
       </c>
       <c r="F45" s="9">
-        <f>[1]K12!M43</f>
         <v>653</v>
       </c>
       <c r="G45" s="10">
-        <f>[1]K12!D43</f>
         <v>34754</v>
       </c>
       <c r="I45" s="6"/>
@@ -6173,23 +3694,18 @@
         <v>91</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="0"/>
         <v>70504</v>
       </c>
       <c r="D46" s="9">
-        <f>[1]K12!G44</f>
         <v>63994</v>
       </c>
       <c r="E46" s="9">
-        <f>[1]K12!J44</f>
         <v>5105</v>
       </c>
       <c r="F46" s="9">
-        <f>[1]K12!M44</f>
         <v>1405</v>
       </c>
       <c r="G46" s="10">
-        <f>[1]K12!D44</f>
         <v>0</v>
       </c>
       <c r="I46" s="6"/>
@@ -6204,23 +3720,18 @@
         <v>93</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="0"/>
         <v>337041</v>
       </c>
       <c r="D47" s="9">
-        <f>[1]K12!G45</f>
         <v>361365</v>
       </c>
       <c r="E47" s="9">
-        <f>[1]K12!J45</f>
         <v>2663</v>
       </c>
       <c r="F47" s="9">
-        <f>[1]K12!M45</f>
         <v>2110</v>
       </c>
       <c r="G47" s="10">
-        <f>[1]K12!D45</f>
         <v>29097</v>
       </c>
       <c r="I47" s="6"/>
@@ -6235,23 +3746,18 @@
         <v>95</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="0"/>
         <v>795255</v>
       </c>
       <c r="D48" s="9">
-        <f>[1]K12!G46</f>
         <v>777202</v>
       </c>
       <c r="E48" s="9">
-        <f>[1]K12!J46</f>
         <v>15712</v>
       </c>
       <c r="F48" s="9">
-        <f>[1]K12!M46</f>
         <v>7646</v>
       </c>
       <c r="G48" s="10">
-        <f>[1]K12!D46</f>
         <v>5305</v>
       </c>
       <c r="I48" s="6"/>
@@ -6266,23 +3772,18 @@
         <v>97</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="0"/>
         <v>171766</v>
       </c>
       <c r="D49" s="9">
-        <f>[1]K12!G47</f>
         <v>171251</v>
       </c>
       <c r="E49" s="9">
-        <f>[1]K12!J47</f>
         <v>0</v>
       </c>
       <c r="F49" s="9">
-        <f>[1]K12!M47</f>
         <v>1536</v>
       </c>
       <c r="G49" s="10">
-        <f>[1]K12!D47</f>
         <v>1021</v>
       </c>
       <c r="I49" s="6"/>
@@ -6297,23 +3798,18 @@
         <v>99</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="0"/>
         <v>68165</v>
       </c>
       <c r="D50" s="9">
-        <f>[1]K12!G48</f>
         <v>68017</v>
       </c>
       <c r="E50" s="9">
-        <f>[1]K12!J48</f>
         <v>6</v>
       </c>
       <c r="F50" s="9">
-        <f>[1]K12!M48</f>
         <v>188</v>
       </c>
       <c r="G50" s="10">
-        <f>[1]K12!D48</f>
         <v>46</v>
       </c>
       <c r="I50" s="6"/>
@@ -6328,23 +3824,18 @@
         <v>101</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="0"/>
         <v>262262</v>
       </c>
       <c r="D51" s="9">
-        <f>[1]K12!G49</f>
         <v>287663</v>
       </c>
       <c r="E51" s="9">
-        <f>[1]K12!J49</f>
         <v>763</v>
       </c>
       <c r="F51" s="9">
-        <f>[1]K12!M49</f>
         <v>2511</v>
       </c>
       <c r="G51" s="10">
-        <f>[1]K12!D49</f>
         <v>28675</v>
       </c>
       <c r="I51" s="6"/>
@@ -6359,23 +3850,18 @@
         <v>103</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="0"/>
         <v>665882</v>
       </c>
       <c r="D52" s="9">
-        <f>[1]K12!G50</f>
         <v>703533</v>
       </c>
       <c r="E52" s="9">
-        <f>[1]K12!J50</f>
         <v>21853</v>
       </c>
       <c r="F52" s="9">
-        <f>[1]K12!M50</f>
         <v>4500</v>
       </c>
       <c r="G52" s="10">
-        <f>[1]K12!D50</f>
         <v>64004</v>
       </c>
       <c r="I52" s="6"/>
@@ -6390,23 +3876,18 @@
         <v>105</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="0"/>
         <v>448416</v>
       </c>
       <c r="D53" s="9">
-        <f>[1]K12!G51</f>
         <v>431313</v>
       </c>
       <c r="E53" s="9">
-        <f>[1]K12!J51</f>
         <v>35190</v>
       </c>
       <c r="F53" s="9">
-        <f>[1]K12!M51</f>
         <v>6041</v>
       </c>
       <c r="G53" s="10">
-        <f>[1]K12!D51</f>
         <v>24128</v>
       </c>
       <c r="I53" s="6"/>
@@ -6421,23 +3902,18 @@
         <v>107</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="0"/>
         <v>331521</v>
       </c>
       <c r="D54" s="9">
-        <f>[1]K12!G52</f>
         <v>331839</v>
       </c>
       <c r="E54" s="9">
-        <f>[1]K12!J52</f>
         <v>6255</v>
       </c>
       <c r="F54" s="9">
-        <f>[1]K12!M52</f>
         <v>1117</v>
       </c>
       <c r="G54" s="10">
-        <f>[1]K12!D52</f>
         <v>7690</v>
       </c>
       <c r="I54" s="6"/>
@@ -6452,23 +3928,18 @@
         <v>109</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="0"/>
         <v>104355</v>
       </c>
       <c r="D55" s="9">
-        <f>[1]K12!G53</f>
         <v>103788</v>
       </c>
       <c r="E55" s="9">
-        <f>[1]K12!J53</f>
         <v>4</v>
       </c>
       <c r="F55" s="9">
-        <f>[1]K12!M53</f>
         <v>563</v>
       </c>
       <c r="G55" s="10">
-        <f>[1]K12!D53</f>
         <v>0</v>
       </c>
       <c r="I55" s="6"/>
@@ -6566,8 +4037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -6635,23 +4106,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="13">
-        <f>D4+E4+F4-G4</f>
         <v>11459731</v>
       </c>
       <c r="D4" s="4">
-        <f>[1]K12!H2</f>
         <v>10255246</v>
       </c>
       <c r="E4" s="4">
-        <f>[1]K12!K2</f>
         <v>832562</v>
       </c>
       <c r="F4" s="4">
-        <f>[1]K12!N2</f>
         <v>371923</v>
       </c>
       <c r="G4" s="5">
-        <f>[1]K12!E2</f>
         <v>0</v>
       </c>
       <c r="I4" s="6"/>
@@ -6666,23 +4132,18 @@
         <v>9</v>
       </c>
       <c r="C5" s="8">
-        <f>D5+E5+F5-G5</f>
         <v>88163</v>
       </c>
       <c r="D5" s="9">
-        <f>[1]K12!H3</f>
         <v>81288</v>
       </c>
       <c r="E5" s="9">
-        <f>[1]K12!K3</f>
         <v>5194</v>
       </c>
       <c r="F5" s="9">
-        <f>[1]K12!N3</f>
         <v>1681</v>
       </c>
       <c r="G5" s="10">
-        <f>[1]K12!E3</f>
         <v>0</v>
       </c>
       <c r="I5" s="6"/>
@@ -6696,23 +4157,18 @@
         <v>11</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" ref="C6:C55" si="0">D6+E6+F6-G6</f>
         <v>38174</v>
       </c>
       <c r="D6" s="9">
-        <f>[1]K12!H4</f>
         <v>35554</v>
       </c>
       <c r="E6" s="9">
-        <f>[1]K12!K4</f>
         <v>1834</v>
       </c>
       <c r="F6" s="9">
-        <f>[1]K12!N4</f>
         <v>786</v>
       </c>
       <c r="G6" s="10">
-        <f>[1]K12!E4</f>
         <v>0</v>
       </c>
       <c r="I6" s="6"/>
@@ -6726,23 +4182,18 @@
         <v>13</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="0"/>
         <v>159885</v>
       </c>
       <c r="D7" s="9">
-        <f>[1]K12!H5</f>
         <v>150935</v>
       </c>
       <c r="E7" s="9">
-        <f>[1]K12!K5</f>
         <v>3111</v>
       </c>
       <c r="F7" s="9">
-        <f>[1]K12!N5</f>
         <v>5839</v>
       </c>
       <c r="G7" s="10">
-        <f>[1]K12!E5</f>
         <v>0</v>
       </c>
       <c r="I7" s="6"/>
@@ -6756,23 +4207,18 @@
         <v>15</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="0"/>
         <v>94275</v>
       </c>
       <c r="D8" s="9">
-        <f>[1]K12!H6</f>
         <v>84831</v>
       </c>
       <c r="E8" s="9">
-        <f>[1]K12!K6</f>
         <v>7188</v>
       </c>
       <c r="F8" s="9">
-        <f>[1]K12!N6</f>
         <v>2256</v>
       </c>
       <c r="G8" s="10">
-        <f>[1]K12!E6</f>
         <v>0</v>
       </c>
       <c r="I8" s="6"/>
@@ -6786,23 +4232,18 @@
         <v>17</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="0"/>
         <v>1386431</v>
       </c>
       <c r="D9" s="9">
-        <f>[1]K12!H7</f>
         <v>1213526</v>
       </c>
       <c r="E9" s="9">
-        <f>[1]K12!K7</f>
         <v>148923</v>
       </c>
       <c r="F9" s="9">
-        <f>[1]K12!N7</f>
         <v>23982</v>
       </c>
       <c r="G9" s="10">
-        <f>[1]K12!E7</f>
         <v>0</v>
       </c>
       <c r="I9" s="6"/>
@@ -6817,23 +4258,18 @@
         <v>19</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="0"/>
         <v>251616</v>
       </c>
       <c r="D10" s="9">
-        <f>[1]K12!H8</f>
         <v>229188</v>
       </c>
       <c r="E10" s="9">
-        <f>[1]K12!K8</f>
         <v>17036</v>
       </c>
       <c r="F10" s="9">
-        <f>[1]K12!N8</f>
         <v>5392</v>
       </c>
       <c r="G10" s="10">
-        <f>[1]K12!E8</f>
         <v>0</v>
       </c>
       <c r="I10" s="6"/>
@@ -6848,23 +4284,18 @@
         <v>21</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="0"/>
         <v>159593</v>
       </c>
       <c r="D11" s="9">
-        <f>[1]K12!H9</f>
         <v>152107</v>
       </c>
       <c r="E11" s="9">
-        <f>[1]K12!K9</f>
         <v>6953</v>
       </c>
       <c r="F11" s="9">
-        <f>[1]K12!N9</f>
         <v>533</v>
       </c>
       <c r="G11" s="10">
-        <f>[1]K12!E9</f>
         <v>0</v>
       </c>
       <c r="I11" s="6"/>
@@ -6879,23 +4310,18 @@
         <v>23</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="0"/>
         <v>50991</v>
       </c>
       <c r="D12" s="9">
-        <f>[1]K12!H10</f>
         <v>34328</v>
       </c>
       <c r="E12" s="9">
-        <f>[1]K12!K10</f>
         <v>15769</v>
       </c>
       <c r="F12" s="9">
-        <f>[1]K12!N10</f>
         <v>894</v>
       </c>
       <c r="G12" s="10">
-        <f>[1]K12!E10</f>
         <v>0</v>
       </c>
       <c r="I12" s="6"/>
@@ -6910,23 +4336,18 @@
         <v>25</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="0"/>
         <v>65499</v>
       </c>
       <c r="D13" s="9">
-        <f>[1]K12!H11</f>
         <v>34373</v>
       </c>
       <c r="E13" s="9">
-        <f>[1]K12!K11</f>
         <v>27173</v>
       </c>
       <c r="F13" s="9">
-        <f>[1]K12!N11</f>
         <v>3953</v>
       </c>
       <c r="G13" s="10">
-        <f>[1]K12!E11</f>
         <v>0</v>
       </c>
       <c r="I13" s="6"/>
@@ -6941,23 +4362,18 @@
         <v>27</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="0"/>
         <v>606646</v>
       </c>
       <c r="D14" s="9">
-        <f>[1]K12!H12</f>
         <v>519110</v>
       </c>
       <c r="E14" s="9">
-        <f>[1]K12!K12</f>
         <v>45079</v>
       </c>
       <c r="F14" s="9">
-        <f>[1]K12!N12</f>
         <v>42457</v>
       </c>
       <c r="G14" s="10">
-        <f>[1]K12!E12</f>
         <v>0</v>
       </c>
       <c r="I14" s="6"/>
@@ -6972,23 +4388,18 @@
         <v>29</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="0"/>
         <v>170149</v>
       </c>
       <c r="D15" s="9">
-        <f>[1]K12!H13</f>
         <v>154567</v>
       </c>
       <c r="E15" s="9">
-        <f>[1]K12!K13</f>
         <v>10867</v>
       </c>
       <c r="F15" s="9">
-        <f>[1]K12!N13</f>
         <v>4715</v>
       </c>
       <c r="G15" s="10">
-        <f>[1]K12!E13</f>
         <v>0</v>
       </c>
       <c r="I15" s="6"/>
@@ -7003,23 +4414,18 @@
         <v>31</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="0"/>
         <v>36234</v>
       </c>
       <c r="D16" s="9">
-        <f>[1]K12!H14</f>
         <v>28022</v>
       </c>
       <c r="E16" s="9">
-        <f>[1]K12!K14</f>
         <v>5307</v>
       </c>
       <c r="F16" s="9">
-        <f>[1]K12!N14</f>
         <v>2905</v>
       </c>
       <c r="G16" s="10">
-        <f>[1]K12!E14</f>
         <v>0</v>
       </c>
       <c r="I16" s="6"/>
@@ -7034,23 +4440,18 @@
         <v>33</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="0"/>
         <v>60545</v>
       </c>
       <c r="D17" s="9">
-        <f>[1]K12!H15</f>
         <v>58781</v>
       </c>
       <c r="E17" s="9">
-        <f>[1]K12!K15</f>
         <v>1196</v>
       </c>
       <c r="F17" s="9">
-        <f>[1]K12!N15</f>
         <v>568</v>
       </c>
       <c r="G17" s="10">
-        <f>[1]K12!E15</f>
         <v>0</v>
       </c>
       <c r="I17" s="6"/>
@@ -7065,23 +4466,18 @@
         <v>35</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="0"/>
         <v>779461</v>
       </c>
       <c r="D18" s="9">
-        <f>[1]K12!H16</f>
         <v>703131</v>
       </c>
       <c r="E18" s="9">
-        <f>[1]K12!K16</f>
         <v>33959</v>
       </c>
       <c r="F18" s="9">
-        <f>[1]K12!N16</f>
         <v>42371</v>
       </c>
       <c r="G18" s="10">
-        <f>[1]K12!E16</f>
         <v>0</v>
       </c>
       <c r="I18" s="6"/>
@@ -7096,23 +4492,18 @@
         <v>37</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="0"/>
         <v>444027</v>
       </c>
       <c r="D19" s="9">
-        <f>[1]K12!H17</f>
         <v>393574</v>
       </c>
       <c r="E19" s="9">
-        <f>[1]K12!K17</f>
         <v>8395</v>
       </c>
       <c r="F19" s="9">
-        <f>[1]K12!N17</f>
         <v>42058</v>
       </c>
       <c r="G19" s="10">
-        <f>[1]K12!E17</f>
         <v>0</v>
       </c>
       <c r="I19" s="6"/>
@@ -7127,23 +4518,18 @@
         <v>39</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="0"/>
         <v>128223</v>
       </c>
       <c r="D20" s="9">
-        <f>[1]K12!H18</f>
         <v>118992</v>
       </c>
       <c r="E20" s="9">
-        <f>[1]K12!K18</f>
         <v>7647</v>
       </c>
       <c r="F20" s="9">
-        <f>[1]K12!N18</f>
         <v>1584</v>
       </c>
       <c r="G20" s="10">
-        <f>[1]K12!E18</f>
         <v>0</v>
       </c>
       <c r="I20" s="6"/>
@@ -7158,23 +4544,18 @@
         <v>41</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="0"/>
         <v>106070</v>
       </c>
       <c r="D21" s="9">
-        <f>[1]K12!H19</f>
         <v>104179</v>
       </c>
       <c r="E21" s="9">
-        <f>[1]K12!K19</f>
         <v>496</v>
       </c>
       <c r="F21" s="9">
-        <f>[1]K12!N19</f>
         <v>1395</v>
       </c>
       <c r="G21" s="10">
-        <f>[1]K12!E19</f>
         <v>0</v>
       </c>
       <c r="I21" s="6"/>
@@ -7189,23 +4570,18 @@
         <v>43</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="0"/>
         <v>156318</v>
       </c>
       <c r="D22" s="9">
-        <f>[1]K12!H20</f>
         <v>128551</v>
       </c>
       <c r="E22" s="9">
-        <f>[1]K12!K20</f>
         <v>21877</v>
       </c>
       <c r="F22" s="9">
-        <f>[1]K12!N20</f>
         <v>5890</v>
       </c>
       <c r="G22" s="10">
-        <f>[1]K12!E20</f>
         <v>0</v>
       </c>
       <c r="I22" s="6"/>
@@ -7220,23 +4596,18 @@
         <v>45</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="0"/>
         <v>218295</v>
       </c>
       <c r="D23" s="9">
-        <f>[1]K12!H21</f>
         <v>171738</v>
       </c>
       <c r="E23" s="9">
-        <f>[1]K12!K21</f>
         <v>33622</v>
       </c>
       <c r="F23" s="9">
-        <f>[1]K12!N21</f>
         <v>12935</v>
       </c>
       <c r="G23" s="10">
-        <f>[1]K12!E21</f>
         <v>0</v>
       </c>
       <c r="I23" s="6"/>
@@ -7251,23 +4622,18 @@
         <v>47</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="0"/>
         <v>44233</v>
       </c>
       <c r="D24" s="9">
-        <f>[1]K12!H22</f>
         <v>40545</v>
       </c>
       <c r="E24" s="9">
-        <f>[1]K12!K22</f>
         <v>3447</v>
       </c>
       <c r="F24" s="9">
-        <f>[1]K12!N22</f>
         <v>241</v>
       </c>
       <c r="G24" s="10">
-        <f>[1]K12!E22</f>
         <v>0</v>
       </c>
       <c r="I24" s="6"/>
@@ -7282,23 +4648,18 @@
         <v>49</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="0"/>
         <v>187561</v>
       </c>
       <c r="D25" s="9">
-        <f>[1]K12!H23</f>
         <v>182364</v>
       </c>
       <c r="E25" s="9">
-        <f>[1]K12!K23</f>
         <v>3709</v>
       </c>
       <c r="F25" s="9">
-        <f>[1]K12!N23</f>
         <v>1488</v>
       </c>
       <c r="G25" s="10">
-        <f>[1]K12!E23</f>
         <v>0</v>
       </c>
       <c r="I25" s="6"/>
@@ -7313,23 +4674,18 @@
         <v>51</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="0"/>
         <v>282822</v>
       </c>
       <c r="D26" s="9">
-        <f>[1]K12!H24</f>
         <v>250614</v>
       </c>
       <c r="E26" s="9">
-        <f>[1]K12!K24</f>
         <v>30938</v>
       </c>
       <c r="F26" s="9">
-        <f>[1]K12!N24</f>
         <v>1270</v>
       </c>
       <c r="G26" s="10">
-        <f>[1]K12!E24</f>
         <v>0</v>
       </c>
       <c r="I26" s="6"/>
@@ -7344,23 +4700,18 @@
         <v>53</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="0"/>
         <v>379435</v>
       </c>
       <c r="D27" s="9">
-        <f>[1]K12!H25</f>
         <v>357859</v>
       </c>
       <c r="E27" s="9">
-        <f>[1]K12!K25</f>
         <v>3881</v>
       </c>
       <c r="F27" s="9">
-        <f>[1]K12!N25</f>
         <v>17695</v>
       </c>
       <c r="G27" s="10">
-        <f>[1]K12!E25</f>
         <v>0</v>
       </c>
       <c r="I27" s="6"/>
@@ -7375,23 +4726,18 @@
         <v>55</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="0"/>
         <v>243396</v>
       </c>
       <c r="D28" s="9">
-        <f>[1]K12!H26</f>
         <v>225505</v>
       </c>
       <c r="E28" s="9">
-        <f>[1]K12!K26</f>
         <v>6893</v>
       </c>
       <c r="F28" s="9">
-        <f>[1]K12!N26</f>
         <v>10998</v>
       </c>
       <c r="G28" s="10">
-        <f>[1]K12!E26</f>
         <v>0</v>
       </c>
       <c r="I28" s="6"/>
@@ -7406,23 +4752,18 @@
         <v>57</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="0"/>
         <v>68891</v>
       </c>
       <c r="D29" s="9">
-        <f>[1]K12!H27</f>
         <v>54079</v>
       </c>
       <c r="E29" s="9">
-        <f>[1]K12!K27</f>
         <v>10879</v>
       </c>
       <c r="F29" s="9">
-        <f>[1]K12!N27</f>
         <v>3933</v>
       </c>
       <c r="G29" s="10">
-        <f>[1]K12!E27</f>
         <v>0</v>
       </c>
       <c r="I29" s="6"/>
@@ -7437,23 +4778,18 @@
         <v>59</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="0"/>
         <v>238043</v>
       </c>
       <c r="D30" s="9">
-        <f>[1]K12!H28</f>
         <v>218620</v>
       </c>
       <c r="E30" s="9">
-        <f>[1]K12!K28</f>
         <v>14247</v>
       </c>
       <c r="F30" s="9">
-        <f>[1]K12!N28</f>
         <v>5176</v>
       </c>
       <c r="G30" s="10">
-        <f>[1]K12!E28</f>
         <v>0</v>
       </c>
       <c r="I30" s="6"/>
@@ -7468,23 +4804,18 @@
         <v>61</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="0"/>
         <v>30379</v>
       </c>
       <c r="D31" s="9">
-        <f>[1]K12!H29</f>
         <v>29273</v>
       </c>
       <c r="E31" s="9">
-        <f>[1]K12!K29</f>
         <v>0</v>
       </c>
       <c r="F31" s="9">
-        <f>[1]K12!N29</f>
         <v>1106</v>
       </c>
       <c r="G31" s="10">
-        <f>[1]K12!E29</f>
         <v>0</v>
       </c>
       <c r="I31" s="6"/>
@@ -7499,23 +4830,18 @@
         <v>63</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="0"/>
         <v>58084</v>
       </c>
       <c r="D32" s="9">
-        <f>[1]K12!H30</f>
         <v>51583</v>
       </c>
       <c r="E32" s="9">
-        <f>[1]K12!K30</f>
         <v>5105</v>
       </c>
       <c r="F32" s="9">
-        <f>[1]K12!N30</f>
         <v>1396</v>
       </c>
       <c r="G32" s="10">
-        <f>[1]K12!E30</f>
         <v>0</v>
       </c>
       <c r="I32" s="6"/>
@@ -7530,23 +4856,18 @@
         <v>65</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="0"/>
         <v>102187</v>
       </c>
       <c r="D33" s="9">
-        <f>[1]K12!H31</f>
         <v>99729</v>
       </c>
       <c r="E33" s="9">
-        <f>[1]K12!K31</f>
         <v>1848</v>
       </c>
       <c r="F33" s="9">
-        <f>[1]K12!N31</f>
         <v>610</v>
       </c>
       <c r="G33" s="10">
-        <f>[1]K12!E31</f>
         <v>0</v>
       </c>
       <c r="I33" s="6"/>
@@ -7561,23 +4882,18 @@
         <v>67</v>
       </c>
       <c r="C34" s="8">
-        <f t="shared" si="0"/>
         <v>50248</v>
       </c>
       <c r="D34" s="9">
-        <f>[1]K12!H32</f>
         <v>50210</v>
       </c>
       <c r="E34" s="9">
-        <f>[1]K12!K32</f>
         <v>0</v>
       </c>
       <c r="F34" s="9">
-        <f>[1]K12!N32</f>
         <v>38</v>
       </c>
       <c r="G34" s="10">
-        <f>[1]K12!E32</f>
         <v>0</v>
       </c>
       <c r="I34" s="6"/>
@@ -7592,23 +4908,18 @@
         <v>69</v>
       </c>
       <c r="C35" s="8">
-        <f t="shared" si="0"/>
         <v>461681</v>
       </c>
       <c r="D35" s="9">
-        <f>[1]K12!H33</f>
         <v>431908</v>
       </c>
       <c r="E35" s="9">
-        <f>[1]K12!K33</f>
         <v>25047</v>
       </c>
       <c r="F35" s="9">
-        <f>[1]K12!N33</f>
         <v>4726</v>
       </c>
       <c r="G35" s="10">
-        <f>[1]K12!E33</f>
         <v>0</v>
       </c>
       <c r="I35" s="6"/>
@@ -7623,23 +4934,18 @@
         <v>71</v>
       </c>
       <c r="C36" s="8">
-        <f t="shared" si="0"/>
         <v>41500</v>
       </c>
       <c r="D36" s="9">
-        <f>[1]K12!H34</f>
         <v>36922</v>
       </c>
       <c r="E36" s="9">
-        <f>[1]K12!K34</f>
         <v>3968</v>
       </c>
       <c r="F36" s="9">
-        <f>[1]K12!N34</f>
         <v>610</v>
       </c>
       <c r="G36" s="10">
-        <f>[1]K12!E34</f>
         <v>0</v>
       </c>
       <c r="I36" s="6"/>
@@ -7654,23 +4960,18 @@
         <v>73</v>
       </c>
       <c r="C37" s="8">
-        <f t="shared" si="0"/>
         <v>1060006</v>
       </c>
       <c r="D37" s="9">
-        <f>[1]K12!H35</f>
         <v>951998</v>
       </c>
       <c r="E37" s="9">
-        <f>[1]K12!K35</f>
         <v>79456</v>
       </c>
       <c r="F37" s="9">
-        <f>[1]K12!N35</f>
         <v>28552</v>
       </c>
       <c r="G37" s="10">
-        <f>[1]K12!E35</f>
         <v>0</v>
       </c>
       <c r="I37" s="6"/>
@@ -7685,23 +4986,18 @@
         <v>75</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="0"/>
         <v>228018</v>
       </c>
       <c r="D38" s="9">
-        <f>[1]K12!H36</f>
         <v>214209</v>
       </c>
       <c r="E38" s="9">
-        <f>[1]K12!K36</f>
         <v>10852</v>
       </c>
       <c r="F38" s="9">
-        <f>[1]K12!N36</f>
         <v>2957</v>
       </c>
       <c r="G38" s="10">
-        <f>[1]K12!E36</f>
         <v>0</v>
       </c>
       <c r="I38" s="6"/>
@@ -7716,23 +5012,18 @@
         <v>77</v>
       </c>
       <c r="C39" s="8">
-        <f t="shared" si="0"/>
         <v>13915</v>
       </c>
       <c r="D39" s="9">
-        <f>[1]K12!H37</f>
         <v>13388</v>
       </c>
       <c r="E39" s="9">
-        <f>[1]K12!K37</f>
         <v>241</v>
       </c>
       <c r="F39" s="9">
-        <f>[1]K12!N37</f>
         <v>286</v>
       </c>
       <c r="G39" s="10">
-        <f>[1]K12!E37</f>
         <v>0</v>
       </c>
       <c r="I39" s="6"/>
@@ -7747,23 +5038,18 @@
         <v>79</v>
       </c>
       <c r="C40" s="8">
-        <f t="shared" si="0"/>
         <v>452910</v>
       </c>
       <c r="D40" s="9">
-        <f>[1]K12!H38</f>
         <v>415005</v>
       </c>
       <c r="E40" s="9">
-        <f>[1]K12!K38</f>
         <v>22477</v>
       </c>
       <c r="F40" s="9">
-        <f>[1]K12!N38</f>
         <v>15428</v>
       </c>
       <c r="G40" s="10">
-        <f>[1]K12!E38</f>
         <v>0</v>
       </c>
       <c r="I40" s="6"/>
@@ -7778,23 +5064,18 @@
         <v>81</v>
       </c>
       <c r="C41" s="8">
-        <f t="shared" si="0"/>
         <v>94795</v>
       </c>
       <c r="D41" s="9">
-        <f>[1]K12!H39</f>
         <v>87937</v>
       </c>
       <c r="E41" s="9">
-        <f>[1]K12!K39</f>
         <v>5189</v>
       </c>
       <c r="F41" s="9">
-        <f>[1]K12!N39</f>
         <v>1669</v>
       </c>
       <c r="G41" s="10">
-        <f>[1]K12!E39</f>
         <v>0</v>
       </c>
       <c r="I41" s="6"/>
@@ -7809,23 +5090,18 @@
         <v>83</v>
       </c>
       <c r="C42" s="8">
-        <f t="shared" si="0"/>
         <v>186998</v>
       </c>
       <c r="D42" s="9">
-        <f>[1]K12!H40</f>
         <v>178181</v>
       </c>
       <c r="E42" s="9">
-        <f>[1]K12!K40</f>
         <v>3474</v>
       </c>
       <c r="F42" s="9">
-        <f>[1]K12!N40</f>
         <v>5343</v>
       </c>
       <c r="G42" s="10">
-        <f>[1]K12!E40</f>
         <v>0</v>
       </c>
       <c r="I42" s="6"/>
@@ -7840,23 +5116,18 @@
         <v>85</v>
       </c>
       <c r="C43" s="8">
-        <f t="shared" si="0"/>
         <v>208203</v>
       </c>
       <c r="D43" s="9">
-        <f>[1]K12!H41</f>
         <v>204574</v>
       </c>
       <c r="E43" s="9">
-        <f>[1]K12!K41</f>
         <v>2727</v>
       </c>
       <c r="F43" s="9">
-        <f>[1]K12!N41</f>
         <v>902</v>
       </c>
       <c r="G43" s="10">
-        <f>[1]K12!E41</f>
         <v>0</v>
       </c>
       <c r="I43" s="6"/>
@@ -7871,23 +5142,18 @@
         <v>87</v>
       </c>
       <c r="C44" s="8">
-        <f t="shared" si="0"/>
         <v>36943</v>
       </c>
       <c r="D44" s="9">
-        <f>[1]K12!H42</f>
         <v>36735</v>
       </c>
       <c r="E44" s="9">
-        <f>[1]K12!K42</f>
         <v>131</v>
       </c>
       <c r="F44" s="9">
-        <f>[1]K12!N42</f>
         <v>77</v>
       </c>
       <c r="G44" s="10">
-        <f>[1]K12!E42</f>
         <v>0</v>
       </c>
       <c r="I44" s="6"/>
@@ -7902,23 +5168,18 @@
         <v>89</v>
       </c>
       <c r="C45" s="8">
-        <f t="shared" si="0"/>
         <v>135688</v>
       </c>
       <c r="D45" s="9">
-        <f>[1]K12!H43</f>
         <v>120795</v>
       </c>
       <c r="E45" s="9">
-        <f>[1]K12!K43</f>
         <v>12091</v>
       </c>
       <c r="F45" s="9">
-        <f>[1]K12!N43</f>
         <v>2802</v>
       </c>
       <c r="G45" s="10">
-        <f>[1]K12!E43</f>
         <v>0</v>
       </c>
       <c r="I45" s="6"/>
@@ -7933,23 +5194,18 @@
         <v>91</v>
       </c>
       <c r="C46" s="8">
-        <f t="shared" si="0"/>
         <v>25675</v>
       </c>
       <c r="D46" s="9">
-        <f>[1]K12!H44</f>
         <v>24637</v>
       </c>
       <c r="E46" s="9">
-        <f>[1]K12!K44</f>
         <v>605</v>
       </c>
       <c r="F46" s="9">
-        <f>[1]K12!N44</f>
         <v>433</v>
       </c>
       <c r="G46" s="10">
-        <f>[1]K12!E44</f>
         <v>0</v>
       </c>
       <c r="I46" s="6"/>
@@ -7964,23 +5220,18 @@
         <v>93</v>
       </c>
       <c r="C47" s="8">
-        <f t="shared" si="0"/>
         <v>114791</v>
       </c>
       <c r="D47" s="9">
-        <f>[1]K12!H45</f>
         <v>112027</v>
       </c>
       <c r="E47" s="9">
-        <f>[1]K12!K45</f>
         <v>1132</v>
       </c>
       <c r="F47" s="9">
-        <f>[1]K12!N45</f>
         <v>1632</v>
       </c>
       <c r="G47" s="10">
-        <f>[1]K12!E45</f>
         <v>0</v>
       </c>
       <c r="I47" s="6"/>
@@ -7995,23 +5246,18 @@
         <v>95</v>
       </c>
       <c r="C48" s="8">
-        <f t="shared" si="0"/>
         <v>519131</v>
       </c>
       <c r="D48" s="9">
-        <f>[1]K12!H46</f>
         <v>437903</v>
       </c>
       <c r="E48" s="9">
-        <f>[1]K12!K46</f>
         <v>65610</v>
       </c>
       <c r="F48" s="9">
-        <f>[1]K12!N46</f>
         <v>15618</v>
       </c>
       <c r="G48" s="10">
-        <f>[1]K12!E46</f>
         <v>0</v>
       </c>
       <c r="I48" s="6"/>
@@ -8026,23 +5272,18 @@
         <v>97</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="0"/>
         <v>130642</v>
       </c>
       <c r="D49" s="9">
-        <f>[1]K12!H47</f>
         <v>104889</v>
       </c>
       <c r="E49" s="9">
-        <f>[1]K12!K47</f>
         <v>22667</v>
       </c>
       <c r="F49" s="9">
-        <f>[1]K12!N47</f>
         <v>3086</v>
       </c>
       <c r="G49" s="10">
-        <f>[1]K12!E47</f>
         <v>0</v>
       </c>
       <c r="I49" s="6"/>
@@ -8057,23 +5298,18 @@
         <v>99</v>
       </c>
       <c r="C50" s="8">
-        <f t="shared" si="0"/>
         <v>20430</v>
       </c>
       <c r="D50" s="9">
-        <f>[1]K12!H48</f>
         <v>18933</v>
       </c>
       <c r="E50" s="9">
-        <f>[1]K12!K48</f>
         <v>1202</v>
       </c>
       <c r="F50" s="9">
-        <f>[1]K12!N48</f>
         <v>295</v>
       </c>
       <c r="G50" s="10">
-        <f>[1]K12!E48</f>
         <v>0</v>
       </c>
       <c r="I50" s="6"/>
@@ -8088,23 +5324,18 @@
         <v>101</v>
       </c>
       <c r="C51" s="8">
-        <f t="shared" si="0"/>
         <v>301773</v>
       </c>
       <c r="D51" s="9">
-        <f>[1]K12!H49</f>
         <v>269237</v>
       </c>
       <c r="E51" s="9">
-        <f>[1]K12!K49</f>
         <v>24711</v>
       </c>
       <c r="F51" s="9">
-        <f>[1]K12!N49</f>
         <v>7825</v>
       </c>
       <c r="G51" s="10">
-        <f>[1]K12!E49</f>
         <v>0</v>
       </c>
       <c r="I51" s="6"/>
@@ -8119,23 +5350,18 @@
         <v>103</v>
       </c>
       <c r="C52" s="8">
-        <f t="shared" si="0"/>
         <v>382457</v>
       </c>
       <c r="D52" s="9">
-        <f>[1]K12!H50</f>
         <v>318376</v>
       </c>
       <c r="E52" s="9">
-        <f>[1]K12!K50</f>
         <v>31631</v>
       </c>
       <c r="F52" s="9">
-        <f>[1]K12!N50</f>
         <v>32450</v>
       </c>
       <c r="G52" s="10">
-        <f>[1]K12!E50</f>
         <v>0</v>
       </c>
       <c r="I52" s="6"/>
@@ -8150,23 +5376,18 @@
         <v>105</v>
       </c>
       <c r="C53" s="8">
-        <f t="shared" si="0"/>
         <v>42716</v>
       </c>
       <c r="D53" s="9">
-        <f>[1]K12!H51</f>
         <v>41486</v>
       </c>
       <c r="E53" s="9">
-        <f>[1]K12!K51</f>
         <v>849</v>
       </c>
       <c r="F53" s="9">
-        <f>[1]K12!N51</f>
         <v>381</v>
       </c>
       <c r="G53" s="10">
-        <f>[1]K12!E51</f>
         <v>0</v>
       </c>
       <c r="I53" s="6"/>
@@ -8181,23 +5402,18 @@
         <v>107</v>
       </c>
       <c r="C54" s="8">
-        <f t="shared" si="0"/>
         <v>287402</v>
       </c>
       <c r="D54" s="9">
-        <f>[1]K12!H52</f>
         <v>251755</v>
       </c>
       <c r="E54" s="9">
-        <f>[1]K12!K52</f>
         <v>35117</v>
       </c>
       <c r="F54" s="9">
-        <f>[1]K12!N52</f>
         <v>530</v>
       </c>
       <c r="G54" s="10">
-        <f>[1]K12!E52</f>
         <v>0</v>
       </c>
       <c r="I54" s="6"/>
@@ -8212,23 +5428,18 @@
         <v>109</v>
       </c>
       <c r="C55" s="8">
-        <f t="shared" si="0"/>
         <v>28183</v>
       </c>
       <c r="D55" s="9">
-        <f>[1]K12!H53</f>
         <v>27195</v>
       </c>
       <c r="E55" s="9">
-        <f>[1]K12!K53</f>
         <v>812</v>
       </c>
       <c r="F55" s="9">
-        <f>[1]K12!N53</f>
         <v>176</v>
       </c>
       <c r="G55" s="10">
-        <f>[1]K12!E53</f>
         <v>0</v>
       </c>
       <c r="I55" s="6"/>
